--- a/computed_files/1_2_xenon/mie_results_vle_fluid.xlsx
+++ b/computed_files/1_2_xenon/mie_results_vle_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8010939053032978</v>
       </c>
       <c r="D2">
-        <v>299.520904868634</v>
+        <v>299.5209048686322</v>
       </c>
       <c r="E2">
-        <v>7379315.136586179</v>
+        <v>7379315.136585944</v>
       </c>
       <c r="F2">
-        <v>8757.048985545454</v>
+        <v>8757.048985545274</v>
       </c>
       <c r="G2">
         <v>4.004820555095348</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>98.02867531536172</v>
       </c>
@@ -585,18 +597,24 @@
         <v>0.07826565103192369</v>
       </c>
       <c r="M2">
+        <v>0.07826565103192369</v>
+      </c>
+      <c r="N2">
         <v>1020.54446045461</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>100.0639201067175</v>
       </c>
       <c r="B3">
-        <v>86.4797186459426</v>
+        <v>86.47971864594182</v>
       </c>
       <c r="C3">
-        <v>0.1039537718669061</v>
+        <v>0.1039537718669052</v>
       </c>
       <c r="D3">
         <v>27026.91951983176</v>
@@ -608,98 +626,110 @@
         <v>16443.67241607342</v>
       </c>
       <c r="G3">
-        <v>42.14318801697382</v>
+        <v>42.14318801697387</v>
       </c>
       <c r="H3">
         <v>145.5143566151758</v>
       </c>
       <c r="I3">
-        <v>9.188711347803784E-10</v>
+        <v>9.18871134780379E-10</v>
       </c>
       <c r="J3">
         <v>4.296692242604329E-10</v>
       </c>
       <c r="K3">
-        <v>0.002160305579408306</v>
+        <v>0.002160305579408305</v>
       </c>
       <c r="L3">
-        <v>0.07765332762382721</v>
+        <v>0.07765332762382719</v>
       </c>
       <c r="M3">
-        <v>966.3733181498485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.07765332762382719</v>
+      </c>
+      <c r="N3">
+        <v>966.3733181498478</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>102.0991648980733</v>
       </c>
       <c r="B4">
-        <v>130.3728787230256</v>
+        <v>130.3728787230228</v>
       </c>
       <c r="C4">
-        <v>0.1535976604703503</v>
+        <v>0.1535976604703471</v>
       </c>
       <c r="D4">
         <v>26745.11183204754</v>
       </c>
       <c r="E4">
-        <v>16985.73119586314</v>
+        <v>16985.73119586315</v>
       </c>
       <c r="F4">
-        <v>16136.94137972895</v>
+        <v>16136.94137972896</v>
       </c>
       <c r="G4">
-        <v>44.0476786675142</v>
+        <v>44.04767866751418</v>
       </c>
       <c r="H4">
-        <v>139.1314351967152</v>
+        <v>139.1314351967155</v>
       </c>
       <c r="I4">
-        <v>9.37120313927909E-10</v>
+        <v>9.371203139279082E-10</v>
       </c>
       <c r="J4">
-        <v>4.428382724816821E-10</v>
+        <v>4.428382724816816E-10</v>
       </c>
       <c r="K4">
-        <v>0.002166557543818548</v>
+        <v>0.002166557543818549</v>
       </c>
       <c r="L4">
-        <v>0.07712848502179499</v>
+        <v>0.07712848502179502</v>
       </c>
       <c r="M4">
-        <v>927.2754957240556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.07712848502179502</v>
+      </c>
+      <c r="N4">
+        <v>927.2754957240568</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>104.1344096894291</v>
       </c>
       <c r="B5">
-        <v>192.1616366978571</v>
+        <v>192.1616366978564</v>
       </c>
       <c r="C5">
-        <v>0.2219796795441182</v>
+        <v>0.2219796795441175</v>
       </c>
       <c r="D5">
-        <v>26478.02851621973</v>
+        <v>26478.02851621974</v>
       </c>
       <c r="E5">
-        <v>16709.31000717954</v>
+        <v>16709.31000717955</v>
       </c>
       <c r="F5">
-        <v>15843.64506840087</v>
+        <v>15843.64506840089</v>
       </c>
       <c r="G5">
-        <v>44.71319653485963</v>
+        <v>44.71319653485975</v>
       </c>
       <c r="H5">
-        <v>132.3306968595298</v>
+        <v>132.3306968595301</v>
       </c>
       <c r="I5">
-        <v>9.55278040181326E-10</v>
+        <v>9.552780401813256E-10</v>
       </c>
       <c r="J5">
-        <v>4.565923917368731E-10</v>
+        <v>4.565923917368723E-10</v>
       </c>
       <c r="K5">
         <v>0.002164758742695574</v>
@@ -708,153 +738,177 @@
         <v>0.07668544724323648</v>
       </c>
       <c r="M5">
-        <v>897.9297177311163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.07668544724323648</v>
+      </c>
+      <c r="N5">
+        <v>897.9297177311164</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>106.1696544807849</v>
+        <v>106.1696544807848</v>
       </c>
       <c r="B6">
-        <v>277.3986916876888</v>
+        <v>277.3986916876912</v>
       </c>
       <c r="C6">
-        <v>0.3143203054433983</v>
+        <v>0.3143203054434012</v>
       </c>
       <c r="D6">
-        <v>26224.46888835931</v>
+        <v>26224.46888835932</v>
       </c>
       <c r="E6">
-        <v>16446.93972184557</v>
+        <v>16446.93972184558</v>
       </c>
       <c r="F6">
         <v>15564.41523304551</v>
       </c>
       <c r="G6">
-        <v>44.43146384707133</v>
+        <v>44.43146384707116</v>
       </c>
       <c r="H6">
-        <v>125.3157953570771</v>
+        <v>125.3157953570772</v>
       </c>
       <c r="I6">
-        <v>9.73399634241084E-10</v>
+        <v>9.733996342410842E-10</v>
       </c>
       <c r="J6">
-        <v>4.709866427562678E-10</v>
+        <v>4.709866427562676E-10</v>
       </c>
       <c r="K6">
-        <v>0.002154546447742425</v>
+        <v>0.002154546447742426</v>
       </c>
       <c r="L6">
         <v>0.07631843333003981</v>
       </c>
       <c r="M6">
-        <v>875.2660819876019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.07631843333003981</v>
+      </c>
+      <c r="N6">
+        <v>875.2660819876031</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>108.2048992721407</v>
+        <v>108.2048992721406</v>
       </c>
       <c r="B7">
-        <v>392.8194695624471</v>
+        <v>392.8194695624519</v>
       </c>
       <c r="C7">
-        <v>0.4367670352133493</v>
+        <v>0.436767035213355</v>
       </c>
       <c r="D7">
-        <v>25983.33890573078</v>
+        <v>25983.33890573079</v>
       </c>
       <c r="E7">
         <v>16198.87316979599</v>
       </c>
       <c r="F7">
-        <v>15299.50844025847</v>
+        <v>15299.50844025848</v>
       </c>
       <c r="G7">
-        <v>43.44536623545444</v>
+        <v>43.44536623545453</v>
       </c>
       <c r="H7">
-        <v>118.2517511029965</v>
+        <v>118.2517511029969</v>
       </c>
       <c r="I7">
-        <v>9.915409206020874E-10</v>
+        <v>9.915409206020858E-10</v>
       </c>
       <c r="J7">
-        <v>4.860793331435579E-10</v>
+        <v>4.860793331435577E-10</v>
       </c>
       <c r="K7">
-        <v>0.002135643105916188</v>
+        <v>0.002135643105916189</v>
       </c>
       <c r="L7">
-        <v>0.07602139674796266</v>
+        <v>0.07602139674796268</v>
       </c>
       <c r="M7">
-        <v>857.3750883575302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.07602139674796268</v>
+      </c>
+      <c r="N7">
+        <v>857.3750883575312</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>110.2401440634965</v>
+        <v>110.2401440634964</v>
       </c>
       <c r="B8">
-        <v>546.4726888371855</v>
+        <v>546.4726888371752</v>
       </c>
       <c r="C8">
-        <v>0.596453980410406</v>
+        <v>0.5964539804103954</v>
       </c>
       <c r="D8">
-        <v>25753.64028959017</v>
+        <v>25753.64028959018</v>
       </c>
       <c r="E8">
-        <v>15965.0621514182</v>
+        <v>15965.06215141821</v>
       </c>
       <c r="F8">
         <v>15048.88076857774</v>
       </c>
       <c r="G8">
-        <v>41.95412203074378</v>
+        <v>41.95412203074392</v>
       </c>
       <c r="H8">
-        <v>111.2688843630951</v>
+        <v>111.2688843630955</v>
       </c>
       <c r="I8">
-        <v>1.009757895612726E-09</v>
+        <v>1.009757895612725E-09</v>
       </c>
       <c r="J8">
-        <v>5.019321396751519E-10</v>
+        <v>5.019321396751508E-10</v>
       </c>
       <c r="K8">
-        <v>0.002107875149034416</v>
+        <v>0.002107875149034417</v>
       </c>
       <c r="L8">
-        <v>0.07578791950328542</v>
+        <v>0.07578791950328544</v>
       </c>
       <c r="M8">
-        <v>842.9975066609246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.07578791950328544</v>
+      </c>
+      <c r="N8">
+        <v>842.9975066609248</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>112.2753888548523</v>
+        <v>112.2753888548522</v>
       </c>
       <c r="B9">
-        <v>747.8479707416171</v>
+        <v>747.8479707416056</v>
       </c>
       <c r="C9">
-        <v>0.801552898190627</v>
+        <v>0.8015528981906157</v>
       </c>
       <c r="D9">
-        <v>25534.46089079489</v>
+        <v>25534.4608907949</v>
       </c>
       <c r="E9">
-        <v>15745.22360296365</v>
+        <v>15745.22360296366</v>
       </c>
       <c r="F9">
-        <v>14812.253992657</v>
+        <v>14812.25399265701</v>
       </c>
       <c r="G9">
-        <v>40.11871904847102</v>
+        <v>40.11871904847091</v>
       </c>
       <c r="H9">
         <v>104.4671694383988</v>
@@ -863,768 +917,882 @@
         <v>1.028106471515068E-09</v>
       </c>
       <c r="J9">
-        <v>5.186102153613909E-10</v>
+        <v>5.186102153613903E-10</v>
       </c>
       <c r="K9">
         <v>0.002071199342748802</v>
       </c>
       <c r="L9">
-        <v>0.07561117464793352</v>
+        <v>0.07561117464793347</v>
       </c>
       <c r="M9">
-        <v>831.2624520949233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.07561117464793347</v>
+      </c>
+      <c r="N9">
+        <v>831.2624520949244</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>114.3106336462081</v>
+        <v>114.3106336462079</v>
       </c>
       <c r="B10">
-        <v>1007.999107677709</v>
+        <v>1007.999107677673</v>
       </c>
       <c r="C10">
-        <v>1.061315565053286</v>
+        <v>1.06131556505325</v>
       </c>
       <c r="D10">
-        <v>25324.96613729672</v>
+        <v>25324.96613729673</v>
       </c>
       <c r="E10">
-        <v>15538.89679617227</v>
+        <v>15538.89679617228</v>
       </c>
       <c r="F10">
-        <v>14589.17279531647</v>
+        <v>14589.17279531649</v>
       </c>
       <c r="G10">
-        <v>38.06727056224857</v>
+        <v>38.06727056224867</v>
       </c>
       <c r="H10">
-        <v>97.92064254143907</v>
+        <v>97.92064254143943</v>
       </c>
       <c r="I10">
-        <v>1.046642293366933E-09</v>
+        <v>1.046642293366932E-09</v>
       </c>
       <c r="J10">
-        <v>5.361822761623389E-10</v>
+        <v>5.361822761623383E-10</v>
       </c>
       <c r="K10">
-        <v>0.002025735231280491</v>
+        <v>0.002025735231280495</v>
       </c>
       <c r="L10">
         <v>0.07548396142912146</v>
       </c>
       <c r="M10">
-        <v>821.5429345485435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.07548396142912146</v>
+      </c>
+      <c r="N10">
+        <v>821.5429345485441</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>116.3458784375639</v>
+        <v>116.3458784375637</v>
       </c>
       <c r="B11">
-        <v>1339.661779399481</v>
+        <v>1339.661779399464</v>
       </c>
       <c r="C11">
-        <v>1.386107633110911</v>
+        <v>1.386107633110895</v>
       </c>
       <c r="D11">
-        <v>25124.39142710696</v>
+        <v>25124.39142710697</v>
       </c>
       <c r="E11">
         <v>15345.49173312894</v>
       </c>
       <c r="F11">
-        <v>14379.05316907714</v>
+        <v>14379.05316907715</v>
       </c>
       <c r="G11">
-        <v>35.900061494301</v>
+        <v>35.9000614943011</v>
       </c>
       <c r="H11">
-        <v>91.68161763884677</v>
+        <v>91.68161763884717</v>
       </c>
       <c r="I11">
-        <v>1.065420623917372E-09</v>
+        <v>1.06542062391737E-09</v>
       </c>
       <c r="J11">
-        <v>5.547206616478587E-10</v>
+        <v>5.547206616478573E-10</v>
       </c>
       <c r="K11">
-        <v>0.001971800149542642</v>
+        <v>0.001971800149542648</v>
       </c>
       <c r="L11">
         <v>0.0753988077714355</v>
       </c>
       <c r="M11">
-        <v>813.3716196823859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.0753988077714355</v>
+      </c>
+      <c r="N11">
+        <v>813.3716196823872</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>118.3811232289197</v>
+        <v>118.3811232289195</v>
       </c>
       <c r="B12">
-        <v>1757.364653233864</v>
+        <v>1757.364653233799</v>
       </c>
       <c r="C12">
-        <v>1.787434275112743</v>
+        <v>1.787434275112679</v>
       </c>
       <c r="D12">
-        <v>24932.03534935236</v>
+        <v>24932.03534935237</v>
       </c>
       <c r="E12">
-        <v>15164.32929645454</v>
+        <v>15164.32929645456</v>
       </c>
       <c r="F12">
-        <v>14181.22256728951</v>
+        <v>14181.22256728952</v>
       </c>
       <c r="G12">
-        <v>33.69414979998768</v>
+        <v>33.69414979998798</v>
       </c>
       <c r="H12">
-        <v>85.78456048318724</v>
+        <v>85.78456048318785</v>
       </c>
       <c r="I12">
         <v>1.084496290777227E-09</v>
       </c>
       <c r="J12">
-        <v>5.743013634389184E-10</v>
+        <v>5.743013634389166E-10</v>
       </c>
       <c r="K12">
-        <v>0.001909941077212378</v>
+        <v>0.001909941077212382</v>
       </c>
       <c r="L12">
         <v>0.07534812654340202</v>
       </c>
       <c r="M12">
-        <v>806.3895050388575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.07534812654340202</v>
+      </c>
+      <c r="N12">
+        <v>806.3895050388571</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>120.4163680202755</v>
+        <v>120.4163680202753</v>
       </c>
       <c r="B13">
-        <v>2277.532934156839</v>
+        <v>2277.532934156817</v>
       </c>
       <c r="C13">
-        <v>2.277958043288435</v>
+        <v>2.277958043288417</v>
       </c>
       <c r="D13">
-        <v>24747.25363251338</v>
+        <v>24747.2536325134</v>
       </c>
       <c r="E13">
-        <v>14994.67394314897</v>
+        <v>14994.67394314898</v>
       </c>
       <c r="F13">
-        <v>13994.95259338727</v>
+        <v>13994.95259338728</v>
       </c>
       <c r="G13">
-        <v>31.50745788308214</v>
+        <v>31.50745788308236</v>
       </c>
       <c r="H13">
-        <v>80.24954271931315</v>
+        <v>80.24954271931364</v>
       </c>
       <c r="I13">
-        <v>1.103923689763272E-09</v>
+        <v>1.10392368976327E-09</v>
       </c>
       <c r="J13">
-        <v>5.950040148650064E-10</v>
+        <v>5.950040148650037E-10</v>
       </c>
       <c r="K13">
-        <v>0.001840955839288799</v>
+        <v>0.001840955839288805</v>
       </c>
       <c r="L13">
-        <v>0.07532440638153935</v>
+        <v>0.07532440638153931</v>
       </c>
       <c r="M13">
-        <v>800.3135757108687</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.07532440638153931</v>
+      </c>
+      <c r="N13">
+        <v>800.3135757108689</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>122.4516128116313</v>
+        <v>122.451612811631</v>
       </c>
       <c r="B14">
-        <v>2918.583549447578</v>
+        <v>2918.583549447512</v>
       </c>
       <c r="C14">
-        <v>2.871509451782573</v>
+        <v>2.871509451782513</v>
       </c>
       <c r="D14">
-        <v>24569.4537327741</v>
+        <v>24569.45373277412</v>
       </c>
       <c r="E14">
-        <v>14835.75983444951</v>
+        <v>14835.7598344495</v>
       </c>
       <c r="F14">
-        <v>13819.48512094839</v>
+        <v>13819.48512094838</v>
       </c>
       <c r="G14">
-        <v>29.38233800070264</v>
+        <v>29.38233800070309</v>
       </c>
       <c r="H14">
-        <v>75.08524867646641</v>
+        <v>75.08524867646712</v>
       </c>
       <c r="I14">
-        <v>1.12375683821062E-09</v>
+        <v>1.123756838210618E-09</v>
       </c>
       <c r="J14">
-        <v>6.169118350009628E-10</v>
+        <v>6.169118350009608E-10</v>
       </c>
       <c r="K14">
-        <v>0.00176589556854446</v>
+        <v>0.001765895568544468</v>
       </c>
       <c r="L14">
-        <v>0.07532041528308304</v>
+        <v>0.07532041528308307</v>
       </c>
       <c r="M14">
-        <v>794.915903596148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.07532041528308307</v>
+      </c>
+      <c r="N14">
+        <v>794.9159035961471</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>124.486857602987</v>
+        <v>124.4868576029868</v>
       </c>
       <c r="B15">
-        <v>3701.011268124363</v>
+        <v>3701.011268124211</v>
       </c>
       <c r="C15">
-        <v>3.583090854541823</v>
+        <v>3.583090854541684</v>
       </c>
       <c r="D15">
-        <v>24398.08998710886</v>
+        <v>24398.08998710888</v>
       </c>
       <c r="E15">
-        <v>14686.81131246394</v>
+        <v>14686.81131246395</v>
       </c>
       <c r="F15">
-        <v>13654.0527557375</v>
+        <v>13654.05275573752</v>
       </c>
       <c r="G15">
-        <v>27.34862805642856</v>
+        <v>27.34862805642897</v>
       </c>
       <c r="H15">
-        <v>70.29154131703753</v>
+        <v>70.29154131703827</v>
       </c>
       <c r="I15">
-        <v>1.144049472246972E-09</v>
+        <v>1.144049472246968E-09</v>
       </c>
       <c r="J15">
-        <v>6.401115201523857E-10</v>
+        <v>6.401115201523824E-10</v>
       </c>
       <c r="K15">
-        <v>0.001686041692308593</v>
+        <v>0.001686041692308603</v>
       </c>
       <c r="L15">
-        <v>0.07532939560385118</v>
+        <v>0.0753293956038512</v>
       </c>
       <c r="M15">
-        <v>790.0099036791039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.0753293956038512</v>
+      </c>
+      <c r="N15">
+        <v>790.0099036791041</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>126.5221023943428</v>
+        <v>126.5221023943426</v>
       </c>
       <c r="B16">
-        <v>4647.46517246536</v>
+        <v>4647.465172465222</v>
       </c>
       <c r="C16">
-        <v>4.428874237830452</v>
+        <v>4.428874237830328</v>
       </c>
       <c r="D16">
-        <v>24232.6592656447</v>
+        <v>24232.65926564471</v>
       </c>
       <c r="E16">
-        <v>14547.05859737256</v>
+        <v>14547.05859737257</v>
       </c>
       <c r="F16">
-        <v>13497.89451402315</v>
+        <v>13497.89451402316</v>
       </c>
       <c r="G16">
-        <v>25.42623390484985</v>
+        <v>25.42623390485014</v>
       </c>
       <c r="H16">
-        <v>65.86161478958748</v>
+        <v>65.86161478958802</v>
       </c>
       <c r="I16">
-        <v>1.164855182431294E-09</v>
+        <v>1.164855182431292E-09</v>
       </c>
       <c r="J16">
-        <v>6.646930759958377E-10</v>
+        <v>6.646930759958355E-10</v>
       </c>
       <c r="K16">
-        <v>0.00160285436663418</v>
+        <v>0.001602854366634188</v>
       </c>
       <c r="L16">
-        <v>0.07534523188650988</v>
+        <v>0.07534523188650984</v>
       </c>
       <c r="M16">
+        <v>0.07534523188650984</v>
+      </c>
+      <c r="N16">
         <v>785.4411926432742</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>128.5573471856986</v>
+        <v>128.5573471856984</v>
       </c>
       <c r="B17">
-        <v>5782.815020238731</v>
+        <v>5782.81502023857</v>
       </c>
       <c r="C17">
-        <v>5.426193583663689</v>
+        <v>5.42619358366355</v>
       </c>
       <c r="D17">
-        <v>24072.69706626795</v>
+        <v>24072.69706626797</v>
       </c>
       <c r="E17">
-        <v>14415.74950930875</v>
+        <v>14415.74950930876</v>
       </c>
       <c r="F17">
-        <v>13350.26752184738</v>
+        <v>13350.26752184739</v>
       </c>
       <c r="G17">
-        <v>23.62728477657006</v>
+        <v>23.62728477657028</v>
       </c>
       <c r="H17">
-        <v>61.78377261972737</v>
+        <v>61.78377261972788</v>
       </c>
       <c r="I17">
-        <v>1.186227582715508E-09</v>
+        <v>1.186227582715504E-09</v>
       </c>
       <c r="J17">
-        <v>6.907495840032846E-10</v>
+        <v>6.907495840032815E-10</v>
       </c>
       <c r="K17">
-        <v>0.001517894853226202</v>
+        <v>0.001517894853226214</v>
       </c>
       <c r="L17">
-        <v>0.0753625772859387</v>
+        <v>0.07536257728593872</v>
       </c>
       <c r="M17">
-        <v>781.0814575291398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.07536257728593872</v>
+      </c>
+      <c r="N17">
+        <v>781.0814575291408</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>130.5925919770544</v>
+        <v>130.5925919770541</v>
       </c>
       <c r="B18">
-        <v>7134.207162214717</v>
+        <v>7134.207162214463</v>
       </c>
       <c r="C18">
-        <v>6.593532489521265</v>
+        <v>6.593532489521043</v>
       </c>
       <c r="D18">
-        <v>23917.77400163675</v>
+        <v>23917.77400163678</v>
       </c>
       <c r="E18">
-        <v>14292.15793280238</v>
+        <v>14292.15793280239</v>
       </c>
       <c r="F18">
-        <v>13210.45545374875</v>
+        <v>13210.45545374877</v>
       </c>
       <c r="G18">
-        <v>21.95791251415484</v>
+        <v>21.9579125141552</v>
       </c>
       <c r="H18">
-        <v>58.04287561841287</v>
+        <v>58.0428756184135</v>
       </c>
       <c r="I18">
-        <v>1.208220508337175E-09</v>
+        <v>1.20822050833717E-09</v>
       </c>
       <c r="J18">
-        <v>7.183768965419272E-10</v>
+        <v>7.183768965419234E-10</v>
       </c>
       <c r="K18">
-        <v>0.001432730477903785</v>
+        <v>0.001432730477903799</v>
       </c>
       <c r="L18">
         <v>0.07537692949911814</v>
       </c>
       <c r="M18">
-        <v>776.824298501071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.07537692949911814</v>
+      </c>
+      <c r="N18">
+        <v>776.8242985010711</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>132.6278367684102</v>
+        <v>132.6278367684099</v>
       </c>
       <c r="B19">
-        <v>8731.109808729945</v>
+        <v>8731.109808729676</v>
       </c>
       <c r="C19">
-        <v>7.950507751280345</v>
+        <v>7.950507751280117</v>
       </c>
       <c r="D19">
-        <v>23767.49263492161</v>
+        <v>23767.49263492163</v>
       </c>
       <c r="E19">
-        <v>14175.58964992044</v>
+        <v>14175.58964992046</v>
       </c>
       <c r="F19">
-        <v>13077.77433772022</v>
+        <v>13077.77433772024</v>
       </c>
       <c r="G19">
-        <v>20.41970517834718</v>
+        <v>20.41970517834741</v>
       </c>
       <c r="H19">
-        <v>54.6215042999865</v>
+        <v>54.62150429998699</v>
       </c>
       <c r="I19">
-        <v>1.230888238950864E-09</v>
+        <v>1.230888238950862E-09</v>
       </c>
       <c r="J19">
-        <v>7.476732561859364E-10</v>
+        <v>7.476732561859326E-10</v>
       </c>
       <c r="K19">
-        <v>0.001348835566423995</v>
+        <v>0.001348835566424006</v>
       </c>
       <c r="L19">
-        <v>0.07538465244932709</v>
+        <v>0.07538465244932706</v>
       </c>
       <c r="M19">
-        <v>772.5823456509006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.07538465244932706</v>
+      </c>
+      <c r="N19">
+        <v>772.5823456509007</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>134.663081559766</v>
+        <v>134.6630815597657</v>
       </c>
       <c r="B20">
-        <v>10605.34756900662</v>
+        <v>10605.34756900629</v>
       </c>
       <c r="C20">
-        <v>9.517849630144475</v>
+        <v>9.517849630144198</v>
       </c>
       <c r="D20">
-        <v>23621.48462589394</v>
+        <v>23621.48462589397</v>
       </c>
       <c r="E20">
-        <v>14065.38607808307</v>
+        <v>14065.3860780831</v>
       </c>
       <c r="F20">
-        <v>12951.57626303544</v>
+        <v>12951.57626303547</v>
       </c>
       <c r="G20">
-        <v>19.01088286186334</v>
+        <v>19.01088286186356</v>
       </c>
       <c r="H20">
-        <v>51.500878617755</v>
+        <v>51.50087861775552</v>
       </c>
       <c r="I20">
-        <v>1.254285744023409E-09</v>
+        <v>1.254285744023404E-09</v>
       </c>
       <c r="J20">
-        <v>7.787388363382431E-10</v>
+        <v>7.787388363382375E-10</v>
       </c>
       <c r="K20">
-        <v>0.001267503340438715</v>
+        <v>0.001267503340438727</v>
       </c>
       <c r="L20">
-        <v>0.07538294505102515</v>
+        <v>0.07538294505102514</v>
       </c>
       <c r="M20">
-        <v>768.2851637726271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.07538294505102514</v>
+      </c>
+      <c r="N20">
+        <v>768.2851637726282</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>136.6983263511218</v>
+        <v>136.6983263511215</v>
       </c>
       <c r="B21">
-        <v>12791.12531446069</v>
+        <v>12791.12531446013</v>
       </c>
       <c r="C21">
-        <v>11.3173795299442</v>
+        <v>11.31737952994374</v>
       </c>
       <c r="D21">
-        <v>23479.40815355402</v>
+        <v>23479.40815355405</v>
       </c>
       <c r="E21">
-        <v>13960.92636423779</v>
+        <v>13960.9263642378</v>
       </c>
       <c r="F21">
-        <v>12831.2514432722</v>
+        <v>12831.25144327221</v>
       </c>
       <c r="G21">
-        <v>17.72723938831638</v>
+        <v>17.72723938831664</v>
       </c>
       <c r="H21">
-        <v>48.66157430887538</v>
+        <v>48.66157430887594</v>
       </c>
       <c r="I21">
-        <v>1.278468948229877E-09</v>
+        <v>1.27846894822987E-09</v>
       </c>
       <c r="J21">
-        <v>8.116752022529326E-10</v>
+        <v>8.116752022529252E-10</v>
       </c>
       <c r="K21">
-        <v>0.001189781446765736</v>
+        <v>0.00118978144676575</v>
       </c>
       <c r="L21">
-        <v>0.07536976279462676</v>
+        <v>0.07536976279462677</v>
       </c>
       <c r="M21">
-        <v>763.8776048651097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.07536976279462677</v>
+      </c>
+      <c r="N21">
+        <v>763.8776048651109</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>138.7335711424776</v>
+        <v>138.7335711424772</v>
       </c>
       <c r="B22">
-        <v>15325.04153913183</v>
+        <v>15325.04153913114</v>
       </c>
       <c r="C22">
-        <v>13.37198580822397</v>
+        <v>13.3719858082234</v>
       </c>
       <c r="D22">
-        <v>23340.94558545181</v>
+        <v>23340.94558545183</v>
       </c>
       <c r="E22">
-        <v>13861.62821090566</v>
+        <v>13861.62821090569</v>
       </c>
       <c r="F22">
-        <v>12716.2290106648</v>
+        <v>12716.22901066483</v>
       </c>
       <c r="G22">
-        <v>16.56288876416718</v>
+        <v>16.56288876416739</v>
       </c>
       <c r="H22">
-        <v>46.08407089219386</v>
+        <v>46.0840708921943</v>
       </c>
       <c r="I22">
-        <v>1.303495015276997E-09</v>
+        <v>1.303495015276995E-09</v>
       </c>
       <c r="J22">
-        <v>8.465846939613112E-10</v>
+        <v>8.465846939613052E-10</v>
       </c>
       <c r="K22">
-        <v>0.001116438346639744</v>
+        <v>0.001116438346639757</v>
       </c>
       <c r="L22">
-        <v>0.07534370129329968</v>
+        <v>0.07534370129329969</v>
       </c>
       <c r="M22">
-        <v>759.3183748830652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.07534370129329969</v>
+      </c>
+      <c r="N22">
+        <v>759.3183748830651</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>140.7688159338334</v>
+        <v>140.768815933833</v>
       </c>
       <c r="B23">
-        <v>18246.09150366377</v>
+        <v>18246.09150366309</v>
       </c>
       <c r="C23">
-        <v>15.70559843306227</v>
+        <v>15.70559843306173</v>
       </c>
       <c r="D23">
-        <v>23205.80136729833</v>
+        <v>23205.80136729835</v>
       </c>
       <c r="E23">
-        <v>13766.94774250236</v>
+        <v>13766.94774250238</v>
       </c>
       <c r="F23">
-        <v>12605.97685076588</v>
+        <v>12605.9768507659</v>
       </c>
       <c r="G23">
-        <v>15.51085030675462</v>
+        <v>15.51085030675478</v>
       </c>
       <c r="H23">
-        <v>43.74916190734255</v>
+        <v>43.74916190734294</v>
       </c>
       <c r="I23">
-        <v>1.329422649240085E-09</v>
+        <v>1.329422649240081E-09</v>
       </c>
       <c r="J23">
-        <v>8.835697353973927E-10</v>
+        <v>8.835697353973857E-10</v>
       </c>
       <c r="K23">
-        <v>0.001047961113557053</v>
+        <v>0.001047961113557066</v>
       </c>
       <c r="L23">
-        <v>0.07530385307722409</v>
+        <v>0.07530385307722412</v>
       </c>
       <c r="M23">
-        <v>754.5786640997214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.07530385307722412</v>
+      </c>
+      <c r="N23">
+        <v>754.5786640997223</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>142.8040607251892</v>
+        <v>142.8040607251888</v>
       </c>
       <c r="B24">
-        <v>21595.66055142667</v>
+        <v>21595.66055142648</v>
       </c>
       <c r="C24">
-        <v>18.3431631780484</v>
+        <v>18.3431631780483</v>
       </c>
       <c r="D24">
-        <v>23073.70010947097</v>
+        <v>23073.700109471</v>
       </c>
       <c r="E24">
         <v>13676.3786623374</v>
       </c>
       <c r="F24">
-        <v>12500.00072834556</v>
+        <v>12500.00072834557</v>
       </c>
       <c r="G24">
-        <v>14.56350160917009</v>
+        <v>14.56350160917022</v>
       </c>
       <c r="H24">
-        <v>41.63825364765217</v>
+        <v>41.63825364765251</v>
       </c>
       <c r="I24">
-        <v>1.356312413124117E-09</v>
+        <v>1.356312413124111E-09</v>
       </c>
       <c r="J24">
-        <v>9.227320771167655E-10</v>
+        <v>9.22732077116757E-10</v>
       </c>
       <c r="K24">
-        <v>0.0009845794165933342</v>
+        <v>0.0009845794165933466</v>
       </c>
       <c r="L24">
         <v>0.07524964971962254</v>
       </c>
       <c r="M24">
-        <v>749.6407564572895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.07524964971962254</v>
+      </c>
+      <c r="N24">
+        <v>749.6407564572909</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>144.839305516545</v>
+        <v>144.8393055165446</v>
       </c>
       <c r="B25">
-        <v>25417.50807459326</v>
+        <v>25417.50807459172</v>
       </c>
       <c r="C25">
-        <v>21.31061602120712</v>
+        <v>21.31061602120588</v>
       </c>
       <c r="D25">
-        <v>22944.38484964632</v>
+        <v>22944.38484964634</v>
       </c>
       <c r="E25">
-        <v>13589.45090135038</v>
+        <v>13589.4509013504</v>
       </c>
       <c r="F25">
-        <v>12397.84290605232</v>
+        <v>12397.84290605235</v>
       </c>
       <c r="G25">
-        <v>13.71292410322721</v>
+        <v>13.71292410322742</v>
       </c>
       <c r="H25">
-        <v>39.73357461146576</v>
+        <v>39.73357461146615</v>
       </c>
       <c r="I25">
-        <v>1.384227064950243E-09</v>
+        <v>1.384227064950237E-09</v>
       </c>
       <c r="J25">
-        <v>9.64171983296634E-10</v>
+        <v>9.641719832966261E-10</v>
       </c>
       <c r="K25">
-        <v>0.0009263070513232441</v>
+        <v>0.000926307051323255</v>
       </c>
       <c r="L25">
-        <v>0.07518070094990531</v>
+        <v>0.07518070094990534</v>
       </c>
       <c r="M25">
-        <v>744.4965851810214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.07518070094990534</v>
+      </c>
+      <c r="N25">
+        <v>744.4965851810217</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>146.8745503079008</v>
+        <v>146.8745503079003</v>
       </c>
       <c r="B26">
-        <v>29757.74268298841</v>
+        <v>29757.74268298803</v>
       </c>
       <c r="C26">
-        <v>24.63485838109474</v>
+        <v>24.63485838109449</v>
       </c>
       <c r="D26">
-        <v>22817.61547310253</v>
+        <v>22817.61547310256</v>
       </c>
       <c r="E26">
-        <v>13505.72891819985</v>
+        <v>13505.72891819987</v>
       </c>
       <c r="F26">
-        <v>12299.08041585301</v>
+        <v>12299.08041585303</v>
       </c>
       <c r="G26">
-        <v>12.95116203270915</v>
+        <v>12.95116203270918</v>
       </c>
       <c r="H26">
-        <v>38.01831427093148</v>
+        <v>38.01831427093169</v>
       </c>
       <c r="I26">
-        <v>1.413231912228244E-09</v>
+        <v>1.413231912228238E-09</v>
       </c>
       <c r="J26">
-        <v>1.007987377049142E-09</v>
+        <v>1.007987377049133E-09</v>
       </c>
       <c r="K26">
-        <v>0.0008729916616684163</v>
+        <v>0.000872991661668426</v>
       </c>
       <c r="L26">
-        <v>0.07509664104331713</v>
+        <v>0.07509664104331715</v>
       </c>
       <c r="M26">
-        <v>739.1462404835202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.07509664104331715</v>
+      </c>
+      <c r="N26">
+        <v>739.1462404835224</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>148.9097950992565</v>
+        <v>148.9097950992561</v>
       </c>
       <c r="B27">
-        <v>34664.78918887895</v>
+        <v>34664.78918887804</v>
       </c>
       <c r="C27">
-        <v>28.34373378633787</v>
+        <v>28.34373378633721</v>
       </c>
       <c r="D27">
-        <v>22693.16727426407</v>
+        <v>22693.16727426409</v>
       </c>
       <c r="E27">
-        <v>13424.80977590344</v>
+        <v>13424.80977590347</v>
       </c>
       <c r="F27">
-        <v>12203.32310878783</v>
+        <v>12203.32310878785</v>
       </c>
       <c r="G27">
-        <v>12.27041217789591</v>
+        <v>12.27041217789599</v>
       </c>
       <c r="H27">
-        <v>36.47670656788716</v>
+        <v>36.47670656788738</v>
       </c>
       <c r="I27">
-        <v>1.443395186210098E-09</v>
+        <v>1.443395186210092E-09</v>
       </c>
       <c r="J27">
-        <v>1.054272961300895E-09</v>
+        <v>1.054272961300886E-09</v>
       </c>
       <c r="K27">
-        <v>0.0008243646761554213</v>
+        <v>0.0008243646761554311</v>
       </c>
       <c r="L27">
-        <v>0.07499699085602997</v>
+        <v>0.07499699085603</v>
       </c>
       <c r="M27">
-        <v>733.5964607713822</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.07499699085603</v>
+      </c>
+      <c r="N27">
+        <v>733.5964607713838</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>150.9450398906123</v>
+        <v>150.9450398906119</v>
       </c>
       <c r="B28">
-        <v>40189.34806646613</v>
+        <v>40189.34806646549</v>
       </c>
       <c r="C28">
-        <v>32.46600653503226</v>
+        <v>32.46600653503183</v>
       </c>
       <c r="D28">
-        <v>22570.82964485201</v>
+        <v>22570.82964485204</v>
       </c>
       <c r="E28">
         <v>13346.32109192847</v>
@@ -1633,3018 +1801,3462 @@
         <v>12110.21158021413</v>
       </c>
       <c r="G28">
-        <v>11.66315866954481</v>
+        <v>11.66315866954486</v>
       </c>
       <c r="H28">
-        <v>35.09407078888236</v>
+        <v>35.09407078888258</v>
       </c>
       <c r="I28">
-        <v>1.474788437836199E-09</v>
+        <v>1.474788437836193E-09</v>
       </c>
       <c r="J28">
-        <v>1.103119335393566E-09</v>
+        <v>1.103119335393555E-09</v>
       </c>
       <c r="K28">
-        <v>0.0007800859416458595</v>
+        <v>0.0007800859416458689</v>
       </c>
       <c r="L28">
-        <v>0.07488104177210884</v>
+        <v>0.07488104177210887</v>
       </c>
       <c r="M28">
-        <v>727.859152271182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.07488104177210887</v>
+      </c>
+      <c r="N28">
+        <v>727.8591522711838</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>152.9802846819681</v>
+        <v>152.9802846819677</v>
       </c>
       <c r="B29">
-        <v>46384.34807639642</v>
+        <v>46384.34807639525</v>
       </c>
       <c r="C29">
-        <v>37.03134285943476</v>
+        <v>37.03134285943392</v>
       </c>
       <c r="D29">
-        <v>22450.40487558445</v>
+        <v>22450.40487558448</v>
       </c>
       <c r="E29">
-        <v>13269.91893557779</v>
+        <v>13269.9189355778</v>
       </c>
       <c r="F29">
-        <v>12019.41504459973</v>
+        <v>12019.41504459975</v>
       </c>
       <c r="G29">
-        <v>11.12226466507916</v>
+        <v>11.12226466507923</v>
       </c>
       <c r="H29">
-        <v>33.85682011948744</v>
+        <v>33.85682011948765</v>
       </c>
       <c r="I29">
-        <v>1.507486957793394E-09</v>
+        <v>1.507486957793386E-09</v>
       </c>
       <c r="J29">
-        <v>1.154612129941229E-09</v>
+        <v>1.154612129941216E-09</v>
       </c>
       <c r="K29">
-        <v>0.0007397801301598425</v>
+        <v>0.000739780130159852</v>
       </c>
       <c r="L29">
-        <v>0.07474776582487362</v>
+        <v>0.07474776582487366</v>
       </c>
       <c r="M29">
-        <v>721.9499851174221</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.07474776582487366</v>
+      </c>
+      <c r="N29">
+        <v>721.9499851174236</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>155.0155294733239</v>
+        <v>155.0155294733235</v>
       </c>
       <c r="B30">
-        <v>53304.89276385845</v>
+        <v>53304.89276385627</v>
       </c>
       <c r="C30">
-        <v>42.07029507069247</v>
+        <v>42.07029507069085</v>
       </c>
       <c r="D30">
-        <v>22331.7070597696</v>
+        <v>22331.70705976963</v>
       </c>
       <c r="E30">
-        <v>13195.28572789859</v>
+        <v>13195.28572789861</v>
       </c>
       <c r="F30">
-        <v>11930.62921525635</v>
+        <v>11930.62921525637</v>
       </c>
       <c r="G30">
-        <v>10.64103049003907</v>
+        <v>10.64103049003923</v>
       </c>
       <c r="H30">
-        <v>32.75244619423463</v>
+        <v>32.75244619423496</v>
       </c>
       <c r="I30">
-        <v>1.541570223611995E-09</v>
+        <v>1.541570223611988E-09</v>
       </c>
       <c r="J30">
-        <v>1.208831184144918E-09</v>
+        <v>1.208831184144905E-09</v>
       </c>
       <c r="K30">
-        <v>0.0007030641153572992</v>
+        <v>0.0007030641153573078</v>
       </c>
       <c r="L30">
-        <v>0.07459575450133868</v>
+        <v>0.07459575450133873</v>
       </c>
       <c r="M30">
-        <v>715.8871091001063</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.07459575450133873</v>
+      </c>
+      <c r="N30">
+        <v>715.8871091001071</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>157.0507742646797</v>
+        <v>157.0507742646792</v>
       </c>
       <c r="B31">
-        <v>61008.20154518626</v>
+        <v>61008.20154518445</v>
       </c>
       <c r="C31">
-        <v>47.61428911959641</v>
+        <v>47.61428911959513</v>
       </c>
       <c r="D31">
-        <v>22214.56108837304</v>
+        <v>22214.56108837307</v>
       </c>
       <c r="E31">
-        <v>13122.12818443914</v>
+        <v>13122.12818443916</v>
       </c>
       <c r="F31">
-        <v>11843.57422945546</v>
+        <v>11843.57422945548</v>
       </c>
       <c r="G31">
-        <v>10.21322602814552</v>
+        <v>10.21322602814557</v>
       </c>
       <c r="H31">
-        <v>31.76948630071658</v>
+        <v>31.76948630071675</v>
       </c>
       <c r="I31">
-        <v>1.577122377247822E-09</v>
+        <v>1.577122377247811E-09</v>
       </c>
       <c r="J31">
-        <v>1.265849790544756E-09</v>
+        <v>1.265849790544741E-09</v>
       </c>
       <c r="K31">
-        <v>0.0006695659326965841</v>
+        <v>0.0006695659326965926</v>
       </c>
       <c r="L31">
-        <v>0.07442318726599821</v>
+        <v>0.07442318726599827</v>
       </c>
       <c r="M31">
-        <v>709.69002221838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.07442318726599827</v>
+      </c>
+      <c r="N31">
+        <v>709.6900222183826</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>159.0860190560355</v>
+        <v>159.086019056035</v>
       </c>
       <c r="B32">
-        <v>69553.54609362692</v>
+        <v>69553.5460936241</v>
       </c>
       <c r="C32">
-        <v>53.69561597378112</v>
+        <v>53.69561597377908</v>
       </c>
       <c r="D32">
-        <v>22098.80172723742</v>
+        <v>22098.80172723745</v>
       </c>
       <c r="E32">
-        <v>13050.17532935694</v>
+        <v>13050.17532935696</v>
       </c>
       <c r="F32">
-        <v>11757.99264750938</v>
+        <v>11757.99264750939</v>
       </c>
       <c r="G32">
-        <v>9.833103628013998</v>
+        <v>9.833103628014177</v>
       </c>
       <c r="H32">
-        <v>30.89747852205761</v>
+        <v>30.89747852205796</v>
       </c>
       <c r="I32">
-        <v>1.614232737136304E-09</v>
+        <v>1.614232737136295E-09</v>
       </c>
       <c r="J32">
-        <v>1.325734031959873E-09</v>
+        <v>1.325734031959858E-09</v>
       </c>
       <c r="K32">
-        <v>0.0006389366854502837</v>
+        <v>0.0006389366854502918</v>
       </c>
       <c r="L32">
-        <v>0.07422782960327659</v>
+        <v>0.07422782960327669</v>
       </c>
       <c r="M32">
-        <v>703.3786126300366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.07422782960327669</v>
+      </c>
+      <c r="N32">
+        <v>703.3786126300377</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>161.1212638473913</v>
+        <v>161.1212638473908</v>
       </c>
       <c r="B33">
-        <v>79002.18272168448</v>
+        <v>79002.1827216823</v>
       </c>
       <c r="C33">
-        <v>60.34742718073189</v>
+        <v>60.3474271807304</v>
       </c>
       <c r="D33">
-        <v>21984.27276810676</v>
+        <v>21984.27276810679</v>
       </c>
       <c r="E33">
-        <v>12979.17660009061</v>
+        <v>12979.1766000906</v>
       </c>
       <c r="F33">
         <v>11673.64754507958</v>
       </c>
       <c r="G33">
-        <v>9.495396540690065</v>
+        <v>9.495396540690093</v>
       </c>
       <c r="H33">
-        <v>30.12690897098632</v>
+        <v>30.12690897098642</v>
       </c>
       <c r="I33">
-        <v>1.652996349280417E-09</v>
+        <v>1.652996349280404E-09</v>
       </c>
       <c r="J33">
-        <v>1.3885422340585E-09</v>
+        <v>1.388542234058482E-09</v>
       </c>
       <c r="K33">
-        <v>0.0006108570012292406</v>
+        <v>0.0006108570012292473</v>
       </c>
       <c r="L33">
-        <v>0.07400705931010945</v>
+        <v>0.07400705931010949</v>
       </c>
       <c r="M33">
-        <v>696.9723818095555</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.07400705931010949</v>
+      </c>
+      <c r="N33">
+        <v>696.9723818095581</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>163.1565086387471</v>
+        <v>163.1565086387466</v>
       </c>
       <c r="B34">
-        <v>89417.28143672779</v>
+        <v>89417.28143672537</v>
       </c>
       <c r="C34">
-        <v>67.60373496046705</v>
+        <v>67.60373496046542</v>
       </c>
       <c r="D34">
-        <v>21870.8262459706</v>
+        <v>21870.82624597062</v>
       </c>
       <c r="E34">
-        <v>12908.90005458408</v>
+        <v>12908.90005458411</v>
       </c>
       <c r="F34">
-        <v>11590.32071072979</v>
+        <v>11590.32071072981</v>
       </c>
       <c r="G34">
-        <v>9.195306870465775</v>
+        <v>9.195306870465785</v>
       </c>
       <c r="H34">
-        <v>29.44915434416615</v>
+        <v>29.44915434416624</v>
       </c>
       <c r="I34">
-        <v>1.693514582555617E-09</v>
+        <v>1.693514582555609E-09</v>
       </c>
       <c r="J34">
-        <v>1.454324554618453E-09</v>
+        <v>1.454324554618438E-09</v>
       </c>
       <c r="K34">
-        <v>0.0005850395691047748</v>
+        <v>0.0005850395691047806</v>
       </c>
       <c r="L34">
-        <v>0.07375791883676942</v>
+        <v>0.07375791883676948</v>
       </c>
       <c r="M34">
-        <v>690.4898453920953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.07375791883676948</v>
+      </c>
+      <c r="N34">
+        <v>690.489845392097</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>165.1917534301029</v>
+        <v>165.1917534301023</v>
       </c>
       <c r="B35">
-        <v>100863.8523199958</v>
+        <v>100863.8523199923</v>
       </c>
       <c r="C35">
-        <v>75.49941715291347</v>
+        <v>75.49941715291106</v>
       </c>
       <c r="D35">
-        <v>21758.32171600995</v>
+        <v>21758.32171600998</v>
       </c>
       <c r="E35">
         <v>12839.13068749867</v>
       </c>
       <c r="F35">
-        <v>11507.81095517494</v>
+        <v>11507.81095517496</v>
       </c>
       <c r="G35">
-        <v>8.928486177183194</v>
+        <v>8.928486177183252</v>
       </c>
       <c r="H35">
-        <v>28.85642227468092</v>
+        <v>28.85642227468108</v>
       </c>
       <c r="I35">
-        <v>1.735895774096728E-09</v>
+        <v>1.735895774096711E-09</v>
       </c>
       <c r="J35">
-        <v>1.523122727158933E-09</v>
+        <v>1.52312272715891E-09</v>
       </c>
       <c r="K35">
-        <v>0.0005612290533711198</v>
+        <v>0.0005612290533711269</v>
       </c>
       <c r="L35">
-        <v>0.07347719070532049</v>
+        <v>0.07347719070532061</v>
       </c>
       <c r="M35">
-        <v>683.9480992685936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.07347719070532061</v>
+      </c>
+      <c r="N35">
+        <v>683.9480992685967</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>167.2269982214587</v>
+        <v>167.2269982214581</v>
       </c>
       <c r="B36">
-        <v>113408.6698482058</v>
+        <v>113408.6698482021</v>
       </c>
       <c r="C36">
-        <v>84.0702273336871</v>
+        <v>84.07022733368461</v>
       </c>
       <c r="D36">
-        <v>21646.62558410714</v>
+        <v>21646.62558410717</v>
       </c>
       <c r="E36">
-        <v>12769.66885763824</v>
+        <v>12769.66885763826</v>
       </c>
       <c r="F36">
-        <v>11425.93253446318</v>
+        <v>11425.9325344632</v>
       </c>
       <c r="G36">
-        <v>8.691011180803889</v>
+        <v>8.691011180803979</v>
       </c>
       <c r="H36">
-        <v>28.34169135480025</v>
+        <v>28.34169135480042</v>
       </c>
       <c r="I36">
-        <v>1.780255931388741E-09</v>
+        <v>1.780255931388728E-09</v>
       </c>
       <c r="J36">
-        <v>1.594969972398829E-09</v>
+        <v>1.594969972398807E-09</v>
       </c>
       <c r="K36">
-        <v>0.000539200394976019</v>
+        <v>0.0005392003949760257</v>
       </c>
       <c r="L36">
-        <v>0.07316149252941437</v>
+        <v>0.07316149252941447</v>
       </c>
       <c r="M36">
-        <v>677.3625323830248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.07316149252941447</v>
+      </c>
+      <c r="N36">
+        <v>677.3625323830266</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>169.2622430128145</v>
+        <v>169.2622430128139</v>
       </c>
       <c r="B37">
-        <v>127120.1957431113</v>
+        <v>127120.1957431049</v>
       </c>
       <c r="C37">
-        <v>93.35281040915001</v>
+        <v>93.35281040914545</v>
       </c>
       <c r="D37">
-        <v>21535.61048548529</v>
+        <v>21535.61048548532</v>
       </c>
       <c r="E37">
-        <v>12700.32882567407</v>
+        <v>12700.32882567412</v>
       </c>
       <c r="F37">
-        <v>11344.51368619045</v>
+        <v>11344.5136861905</v>
       </c>
       <c r="G37">
         <v>8.479356462339169</v>
       </c>
       <c r="H37">
-        <v>27.89865221587536</v>
+        <v>27.89865221587548</v>
       </c>
       <c r="I37">
-        <v>1.826719498533304E-09</v>
+        <v>1.826719498533294E-09</v>
       </c>
       <c r="J37">
-        <v>1.669891086138527E-09</v>
+        <v>1.669891086138505E-09</v>
       </c>
       <c r="K37">
-        <v>0.0005187562388528704</v>
+        <v>0.0005187562388528757</v>
       </c>
       <c r="L37">
-        <v>0.07280738805208459</v>
+        <v>0.07280738805208471</v>
       </c>
       <c r="M37">
-        <v>670.7466642729088</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.07280738805208471</v>
+      </c>
+      <c r="N37">
+        <v>670.7466642729108</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>171.2974878041703</v>
+        <v>171.2974878041697</v>
       </c>
       <c r="B38">
-        <v>142068.5008989808</v>
+        <v>142068.5008989752</v>
       </c>
       <c r="C38">
-        <v>103.3847240082136</v>
+        <v>103.3847240082098</v>
       </c>
       <c r="D38">
-        <v>21425.15470657935</v>
+        <v>21425.15470657938</v>
       </c>
       <c r="E38">
-        <v>12630.9373989612</v>
+        <v>12630.93739896122</v>
       </c>
       <c r="F38">
-        <v>11263.39527556368</v>
+        <v>11263.3952755637</v>
       </c>
       <c r="G38">
-        <v>8.290365606712687</v>
+        <v>8.290365606712811</v>
       </c>
       <c r="H38">
-        <v>27.5216506662225</v>
+        <v>27.52165066622269</v>
       </c>
       <c r="I38">
-        <v>1.875420195122827E-09</v>
+        <v>1.875420195122815E-09</v>
       </c>
       <c r="J38">
-        <v>1.747902706932966E-09</v>
+        <v>1.747902706932944E-09</v>
       </c>
       <c r="K38">
-        <v>0.0004997239945498248</v>
+        <v>0.0004997239945498301</v>
       </c>
       <c r="L38">
-        <v>0.07241151101642666</v>
+        <v>0.07241151101642677</v>
       </c>
       <c r="M38">
-        <v>664.1120842996348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.07241151101642677</v>
+      </c>
+      <c r="N38">
+        <v>664.1120842996357</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>173.3327325955261</v>
+        <v>173.3327325955254</v>
       </c>
       <c r="B39">
-        <v>158325.1869022637</v>
+        <v>158325.1869022591</v>
       </c>
       <c r="C39">
-        <v>114.204466005343</v>
+        <v>114.20446600534</v>
       </c>
       <c r="D39">
-        <v>21315.14164571567</v>
+        <v>21315.1416457157</v>
       </c>
       <c r="E39">
-        <v>12561.33267860435</v>
+        <v>12561.33267860439</v>
       </c>
       <c r="F39">
-        <v>11182.42954650983</v>
+        <v>11182.42954650986</v>
       </c>
       <c r="G39">
-        <v>8.121221873887002</v>
+        <v>8.121221873887171</v>
       </c>
       <c r="H39">
-        <v>27.20563358346196</v>
+        <v>27.2056335834621</v>
       </c>
       <c r="I39">
-        <v>1.926501937247461E-09</v>
+        <v>1.926501937247444E-09</v>
       </c>
       <c r="J39">
-        <v>1.829013761611967E-09</v>
+        <v>1.82901376161194E-09</v>
       </c>
       <c r="K39">
-        <v>0.0004819528573285551</v>
+        <v>0.0004819528573285606</v>
       </c>
       <c r="L39">
-        <v>0.07197069957301967</v>
+        <v>0.07197069957301983</v>
       </c>
       <c r="M39">
-        <v>657.4684701998642</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.07197069957301983</v>
+      </c>
+      <c r="N39">
+        <v>657.4684701998647</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>175.3679773868819</v>
+        <v>175.3679773868812</v>
       </c>
       <c r="B40">
-        <v>175963.3076227436</v>
+        <v>175963.3076227367</v>
       </c>
       <c r="C40">
-        <v>125.8515085375983</v>
+        <v>125.8515085375936</v>
       </c>
       <c r="D40">
-        <v>21205.45930859899</v>
+        <v>21205.45930859902</v>
       </c>
       <c r="E40">
-        <v>12491.3629028132</v>
+        <v>12491.36290281323</v>
       </c>
       <c r="F40">
-        <v>11101.47897193105</v>
+        <v>11101.47897193107</v>
       </c>
       <c r="G40">
-        <v>7.969419198572985</v>
+        <v>7.969419198573071</v>
       </c>
       <c r="H40">
-        <v>26.94609801998464</v>
+        <v>26.94609801998475</v>
       </c>
       <c r="I40">
-        <v>1.980119851410375E-09</v>
+        <v>1.980119851410364E-09</v>
       </c>
       <c r="J40">
-        <v>1.913226081600761E-09</v>
+        <v>1.913226081600738E-09</v>
       </c>
       <c r="K40">
-        <v>0.0004653109845567707</v>
+        <v>0.0004653109845567749</v>
       </c>
       <c r="L40">
-        <v>0.07148214007399618</v>
+        <v>0.07148214007399628</v>
       </c>
       <c r="M40">
-        <v>650.823665494349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.07148214007399628</v>
+      </c>
+      <c r="N40">
+        <v>650.8236654943497</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>177.4032221782377</v>
+        <v>177.403222178237</v>
       </c>
       <c r="B41">
-        <v>195057.2913224719</v>
+        <v>195057.2913224656</v>
       </c>
       <c r="C41">
-        <v>138.3663389196946</v>
+        <v>138.3663389196905</v>
       </c>
       <c r="D41">
-        <v>21095.99983497972</v>
+        <v>21095.99983497975</v>
       </c>
       <c r="E41">
-        <v>12420.88537985455</v>
+        <v>12420.88537985456</v>
       </c>
       <c r="F41">
-        <v>11020.41519650131</v>
+        <v>11020.41519650132</v>
       </c>
       <c r="G41">
-        <v>7.832734092715454</v>
+        <v>7.83273409271551</v>
       </c>
       <c r="H41">
-        <v>26.73904379658189</v>
+        <v>26.73904379658194</v>
       </c>
       <c r="I41">
-        <v>2.036441393562563E-09</v>
+        <v>2.036441393562548E-09</v>
       </c>
       <c r="J41">
-        <v>2.000535178370037E-09</v>
+        <v>2.000535178370009E-09</v>
       </c>
       <c r="K41">
-        <v>0.0004496829300336642</v>
+        <v>0.0004496829300336686</v>
       </c>
       <c r="L41">
-        <v>0.07094351998830101</v>
+        <v>0.07094351998830115</v>
       </c>
       <c r="M41">
-        <v>644.1837979093693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.07094351998830115</v>
+      </c>
+      <c r="N41">
+        <v>644.1837979093706</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>179.4384669695935</v>
+        <v>179.4384669695928</v>
       </c>
       <c r="B42">
-        <v>215682.8636986237</v>
+        <v>215682.8636986176</v>
       </c>
       <c r="C42">
-        <v>151.7905079163256</v>
+        <v>151.7905079163217</v>
       </c>
       <c r="D42">
-        <v>20986.65905320559</v>
+        <v>20986.65905320562</v>
       </c>
       <c r="E42">
-        <v>12349.76550347513</v>
+        <v>12349.76550347514</v>
       </c>
       <c r="F42">
-        <v>10939.1180649956</v>
+        <v>10939.11806499562</v>
       </c>
       <c r="G42">
-        <v>7.709198847562369</v>
+        <v>7.709198847562409</v>
       </c>
       <c r="H42">
-        <v>26.58092971943572</v>
+        <v>26.58092971943577</v>
       </c>
       <c r="I42">
-        <v>2.095647587123386E-09</v>
+        <v>2.095647587123367E-09</v>
       </c>
       <c r="J42">
-        <v>2.090931162430646E-09</v>
+        <v>2.090931162430615E-09</v>
       </c>
       <c r="K42">
-        <v>0.0004349673779318725</v>
+        <v>0.0004349673779318771</v>
       </c>
       <c r="L42">
-        <v>0.07035318951320063</v>
+        <v>0.07035318951320083</v>
       </c>
       <c r="M42">
-        <v>637.553423887385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.07035318951320083</v>
+      </c>
+      <c r="N42">
+        <v>637.553423887387</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>181.4737117609492</v>
+        <v>181.4737117609485</v>
       </c>
       <c r="B43">
-        <v>237916.9722496163</v>
+        <v>237916.9722496085</v>
       </c>
       <c r="C43">
-        <v>166.1666859017302</v>
+        <v>166.1666859017252</v>
       </c>
       <c r="D43">
-        <v>20877.33605965581</v>
+        <v>20877.33605965585</v>
       </c>
       <c r="E43">
-        <v>12277.87584344928</v>
+        <v>12277.87584344931</v>
       </c>
       <c r="F43">
-        <v>10857.47472895846</v>
+        <v>10857.47472895849</v>
       </c>
       <c r="G43">
-        <v>7.597076294219087</v>
+        <v>7.597076294219095</v>
       </c>
       <c r="H43">
-        <v>26.46863345107732</v>
+        <v>26.46863345107733</v>
       </c>
       <c r="I43">
-        <v>2.157934395766158E-09</v>
+        <v>2.157934395766138E-09</v>
       </c>
       <c r="J43">
-        <v>2.184399787254867E-09</v>
+        <v>2.184399787254834E-09</v>
       </c>
       <c r="K43">
-        <v>0.0004210751800435608</v>
+        <v>0.0004210751800435657</v>
       </c>
       <c r="L43">
-        <v>0.06971032937500317</v>
+        <v>0.06971032937500342</v>
       </c>
       <c r="M43">
-        <v>630.9356871842398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.06971032937500342</v>
+      </c>
+      <c r="N43">
+        <v>630.9356871842421</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>183.5089565523051</v>
+        <v>183.5089565523043</v>
       </c>
       <c r="B44">
-        <v>261837.7123320324</v>
+        <v>261837.712332023</v>
       </c>
       <c r="C44">
-        <v>181.5387275252322</v>
+        <v>181.5387275252261</v>
       </c>
       <c r="D44">
-        <v>20767.93282031565</v>
+        <v>20767.93282031569</v>
       </c>
       <c r="E44">
-        <v>12205.09530384073</v>
+        <v>12205.09530384072</v>
       </c>
       <c r="F44">
         <v>10775.37882449057</v>
       </c>
       <c r="G44">
-        <v>7.49483627556346</v>
+        <v>7.494836275563507</v>
       </c>
       <c r="H44">
         <v>26.399414989575</v>
       </c>
       <c r="I44">
-        <v>2.223514248965788E-09</v>
+        <v>2.223514248965757E-09</v>
       </c>
       <c r="J44">
-        <v>2.280923597459551E-09</v>
+        <v>2.280923597459517E-09</v>
       </c>
       <c r="K44">
-        <v>0.0004079276781317948</v>
+        <v>0.0004079276781317995</v>
       </c>
       <c r="L44">
-        <v>0.06901511768850364</v>
+        <v>0.06901511768850391</v>
       </c>
       <c r="M44">
-        <v>624.3324822679175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.06901511768850391</v>
+      </c>
+      <c r="N44">
+        <v>624.3324822679207</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>185.5442013436608</v>
+        <v>185.5442013436601</v>
       </c>
       <c r="B45">
-        <v>287524.255258789</v>
+        <v>287524.2552587754</v>
       </c>
       <c r="C45">
-        <v>197.9517456096836</v>
+        <v>197.9517456096746</v>
       </c>
       <c r="D45">
-        <v>20658.35379197982</v>
+        <v>20658.35379197986</v>
       </c>
       <c r="E45">
-        <v>12131.30834161135</v>
+        <v>12131.30834161137</v>
       </c>
       <c r="F45">
-        <v>10692.72971401538</v>
+        <v>10692.72971401539</v>
       </c>
       <c r="G45">
-        <v>7.401133901918883</v>
+        <v>7.40113390191892</v>
       </c>
       <c r="H45">
-        <v>26.37088365632862</v>
+        <v>26.37088365632866</v>
       </c>
       <c r="I45">
-        <v>2.292617740883123E-09</v>
+        <v>2.292617740883105E-09</v>
       </c>
       <c r="J45">
-        <v>2.38048315956125E-09</v>
+        <v>2.380483159561216E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003954552821196515</v>
+        <v>0.0003954552821196553</v>
       </c>
       <c r="L45">
-        <v>0.0682688817297729</v>
+        <v>0.06826888172977313</v>
       </c>
       <c r="M45">
-        <v>617.7446156323788</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.06826888172977313</v>
+      </c>
+      <c r="N45">
+        <v>617.7446156323804</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>187.5794461350166</v>
+        <v>187.5794461350159</v>
       </c>
       <c r="B46">
-        <v>315056.7787781084</v>
+        <v>315056.7787780942</v>
       </c>
       <c r="C46">
-        <v>215.4521951405934</v>
+        <v>215.4521951405841</v>
       </c>
       <c r="D46">
-        <v>20548.50556077686</v>
+        <v>20548.5055607769</v>
       </c>
       <c r="E46">
-        <v>12056.40423831953</v>
+        <v>12056.40423831955</v>
       </c>
       <c r="F46">
-        <v>10609.43178503909</v>
+        <v>10609.43178503911</v>
       </c>
       <c r="G46">
-        <v>7.314789602845757</v>
+        <v>7.314789602845857</v>
       </c>
       <c r="H46">
-        <v>26.38096845680262</v>
+        <v>26.38096845680273</v>
       </c>
       <c r="I46">
-        <v>2.365495526164079E-09</v>
+        <v>2.365495526164059E-09</v>
       </c>
       <c r="J46">
-        <v>2.483058353578499E-09</v>
+        <v>2.483058353578461E-09</v>
       </c>
       <c r="K46">
-        <v>0.000383596270712315</v>
+        <v>0.0003835962707123193</v>
       </c>
       <c r="L46">
-        <v>0.06747421248220868</v>
+        <v>0.06747421248220892</v>
       </c>
       <c r="M46">
-        <v>611.1719601677969</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.06747421248220892</v>
+      </c>
+      <c r="N46">
+        <v>611.1719601677981</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>189.6146909263724</v>
+        <v>189.6146909263717</v>
       </c>
       <c r="B47">
-        <v>344516.4002684836</v>
+        <v>344516.400268474</v>
       </c>
       <c r="C47">
-        <v>234.0879683599565</v>
+        <v>234.0879683599507</v>
       </c>
       <c r="D47">
-        <v>20438.29649588717</v>
+        <v>20438.29649588722</v>
       </c>
       <c r="E47">
-        <v>11980.27641780166</v>
+        <v>11980.27641780169</v>
       </c>
       <c r="F47">
-        <v>10525.39379911064</v>
+        <v>10525.39379911068</v>
       </c>
       <c r="G47">
-        <v>7.234770943543925</v>
+        <v>7.234770943543952</v>
       </c>
       <c r="H47">
         <v>26.4278916564904</v>
       </c>
       <c r="I47">
-        <v>2.442420439740089E-09</v>
+        <v>2.442420439740054E-09</v>
       </c>
       <c r="J47">
-        <v>2.588629704624201E-09</v>
+        <v>2.588629704624157E-09</v>
       </c>
       <c r="K47">
-        <v>0.0003722957811034905</v>
+        <v>0.0003722957811034951</v>
       </c>
       <c r="L47">
-        <v>0.06663501366927273</v>
+        <v>0.06663501366927305</v>
       </c>
       <c r="M47">
-        <v>604.6135993809968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.06663501366927305</v>
+      </c>
+      <c r="N47">
+        <v>604.613599381</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>191.6499357177282</v>
+        <v>191.6499357177274</v>
       </c>
       <c r="B48">
-        <v>375985.1129874199</v>
+        <v>375985.1129874111</v>
       </c>
       <c r="C48">
-        <v>253.90850216373</v>
+        <v>253.9085021637249</v>
       </c>
       <c r="D48">
-        <v>20327.63641648662</v>
+        <v>20327.63641648667</v>
       </c>
       <c r="E48">
-        <v>11902.82180289885</v>
+        <v>11902.82180289888</v>
       </c>
       <c r="F48">
-        <v>10440.52828439944</v>
+        <v>10440.52828439948</v>
       </c>
       <c r="G48">
-        <v>7.160176143280639</v>
+        <v>7.160176143280654</v>
       </c>
       <c r="H48">
-        <v>26.51014540339779</v>
+        <v>26.51014540339775</v>
       </c>
       <c r="I48">
-        <v>2.523689871826094E-09</v>
+        <v>2.523689871826062E-09</v>
       </c>
       <c r="J48">
-        <v>2.697179735269532E-09</v>
+        <v>2.697179735269489E-09</v>
       </c>
       <c r="K48">
-        <v>0.0003615049568092198</v>
+        <v>0.0003615049568092238</v>
       </c>
       <c r="L48">
-        <v>0.06575645637478716</v>
+        <v>0.0657564563747875</v>
       </c>
       <c r="M48">
-        <v>598.0679595607529</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.0657564563747875</v>
+      </c>
+      <c r="N48">
+        <v>598.0679595607556</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>193.685180509084</v>
+        <v>193.6851805090832</v>
       </c>
       <c r="B49">
-        <v>409545.7257225576</v>
+        <v>409545.7257225435</v>
       </c>
       <c r="C49">
-        <v>274.9648992200189</v>
+        <v>274.96489922001</v>
       </c>
       <c r="D49">
-        <v>20216.43627008875</v>
+        <v>20216.43627008879</v>
       </c>
       <c r="E49">
-        <v>11823.94020445781</v>
+        <v>11823.94020445783</v>
       </c>
       <c r="F49">
-        <v>10354.75096551823</v>
+        <v>10354.75096551826</v>
       </c>
       <c r="G49">
-        <v>7.090219212161144</v>
+        <v>7.090219212161109</v>
       </c>
       <c r="H49">
-        <v>26.62647122593697</v>
+        <v>26.62647122593688</v>
       </c>
       <c r="I49">
-        <v>2.609628434138277E-09</v>
+        <v>2.609628434138242E-09</v>
       </c>
       <c r="J49">
-        <v>2.808694321710102E-09</v>
+        <v>2.808694321710054E-09</v>
       </c>
       <c r="K49">
-        <v>0.0003511802261874023</v>
+        <v>0.0003511802261874064</v>
       </c>
       <c r="L49">
-        <v>0.06484481838794949</v>
+        <v>0.06484481838794989</v>
       </c>
       <c r="M49">
-        <v>591.5329289727016</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.06484481838794989</v>
+      </c>
+      <c r="N49">
+        <v>591.5329289727048</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>195.7204253004398</v>
+        <v>195.720425300439</v>
       </c>
       <c r="B50">
-        <v>445281.8062122893</v>
+        <v>445281.8062122793</v>
       </c>
       <c r="C50">
-        <v>297.3100644800772</v>
+        <v>297.3100644800717</v>
       </c>
       <c r="D50">
-        <v>20104.60782058309</v>
+        <v>20104.60782058313</v>
       </c>
       <c r="E50">
-        <v>11743.53373599265</v>
+        <v>11743.53373599267</v>
       </c>
       <c r="F50">
-        <v>10267.98022441736</v>
+        <v>10267.98022441738</v>
       </c>
       <c r="G50">
-        <v>7.02421660916266</v>
+        <v>7.024216609162742</v>
       </c>
       <c r="H50">
         <v>26.77584223943333</v>
       </c>
       <c r="I50">
-        <v>2.70059095903816E-09</v>
+        <v>2.700590959038123E-09</v>
       </c>
       <c r="J50">
-        <v>2.923164039452736E-09</v>
+        <v>2.923164039452689E-09</v>
       </c>
       <c r="K50">
-        <v>0.0003412826880836621</v>
+        <v>0.0003412826880836658</v>
       </c>
       <c r="L50">
-        <v>0.06390720473178936</v>
+        <v>0.06390720473178971</v>
       </c>
       <c r="M50">
-        <v>585.0059638954543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.06390720473178971</v>
+      </c>
+      <c r="N50">
+        <v>585.0059638954566</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>197.7556700917956</v>
+        <v>197.7556700917947</v>
       </c>
       <c r="B51">
-        <v>483277.6287311194</v>
+        <v>483277.6287310986</v>
       </c>
       <c r="C51">
-        <v>320.9988590524695</v>
+        <v>320.9988590524562</v>
       </c>
       <c r="D51">
-        <v>19992.0633443768</v>
+        <v>19992.06334437685</v>
       </c>
       <c r="E51">
-        <v>11661.50624752882</v>
+        <v>11661.50624752887</v>
       </c>
       <c r="F51">
-        <v>10180.13658635052</v>
+        <v>10180.13658635057</v>
       </c>
       <c r="G51">
-        <v>6.961575316924774</v>
+        <v>6.961575316924791</v>
       </c>
       <c r="H51">
-        <v>26.95744790410312</v>
+        <v>26.95744790410303</v>
       </c>
       <c r="I51">
-        <v>2.796965880024169E-09</v>
+        <v>2.796965880024128E-09</v>
       </c>
       <c r="J51">
-        <v>3.040585487195571E-09</v>
+        <v>3.040585487195523E-09</v>
       </c>
       <c r="K51">
-        <v>0.0003317775848491185</v>
+        <v>0.0003317775848491222</v>
       </c>
       <c r="L51">
-        <v>0.06295116923111904</v>
+        <v>0.06295116923111943</v>
       </c>
       <c r="M51">
-        <v>578.4841818203189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.06295116923111943</v>
+      </c>
+      <c r="N51">
+        <v>578.4841818203217</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>199.7909148831514</v>
+        <v>199.7909148831505</v>
       </c>
       <c r="B52">
-        <v>523618.1262717848</v>
+        <v>523618.1262717721</v>
       </c>
       <c r="C52">
-        <v>346.0882737570664</v>
+        <v>346.0882737570591</v>
       </c>
       <c r="D52">
-        <v>19878.71533314286</v>
+        <v>19878.71533314291</v>
       </c>
       <c r="E52">
-        <v>11577.7627722605</v>
+        <v>11577.76277226053</v>
       </c>
       <c r="F52">
-        <v>10091.14222505834</v>
+        <v>10091.14222505837</v>
       </c>
       <c r="G52">
-        <v>6.901782225786065</v>
+        <v>6.901782225786132</v>
       </c>
       <c r="H52">
-        <v>27.17068119122223</v>
+        <v>27.17068119122215</v>
       </c>
       <c r="I52">
-        <v>2.899179049949626E-09</v>
+        <v>2.899179049949576E-09</v>
       </c>
       <c r="J52">
-        <v>3.160962580637562E-09</v>
+        <v>3.160962580637506E-09</v>
       </c>
       <c r="K52">
-        <v>0.0003226338464644283</v>
+        <v>0.0003226338464644324</v>
       </c>
       <c r="L52">
-        <v>0.06198427973610351</v>
+        <v>0.06198427973610394</v>
       </c>
       <c r="M52">
-        <v>571.9644424771416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.06198427973610394</v>
+      </c>
+      <c r="N52">
+        <v>571.9644424771442</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>201.8261596745072</v>
+        <v>201.8261596745063</v>
       </c>
       <c r="B53">
-        <v>566388.847803468</v>
+        <v>566388.8478034503</v>
       </c>
       <c r="C53">
-        <v>372.6376250779086</v>
+        <v>372.6376250778979</v>
       </c>
       <c r="D53">
-        <v>19764.47620176239</v>
+        <v>19764.47620176243</v>
       </c>
       <c r="E53">
-        <v>11492.20897972767</v>
+        <v>11492.20897972771</v>
       </c>
       <c r="F53">
-        <v>10000.92048142386</v>
+        <v>10000.9204814239</v>
       </c>
       <c r="G53">
-        <v>6.844394719918118</v>
+        <v>6.844394719918136</v>
       </c>
       <c r="H53">
-        <v>27.41512803162497</v>
+        <v>27.41512803162487</v>
       </c>
       <c r="I53">
-        <v>3.007698062807293E-09</v>
+        <v>3.007698062807258E-09</v>
       </c>
       <c r="J53">
-        <v>3.284307810989863E-09</v>
+        <v>3.284307810989814E-09</v>
       </c>
       <c r="K53">
-        <v>0.00031382369256986</v>
+        <v>0.000313823692569863</v>
       </c>
       <c r="L53">
-        <v>0.0610136839720903</v>
+        <v>0.06101368397209064</v>
       </c>
       <c r="M53">
-        <v>565.443417556622</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.06101368397209064</v>
+      </c>
+      <c r="N53">
+        <v>565.4434175566239</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>203.861404465863</v>
+        <v>203.8614044658621</v>
       </c>
       <c r="B54">
-        <v>611675.9211423906</v>
+        <v>611675.9211423706</v>
       </c>
       <c r="C54">
-        <v>400.7087766992868</v>
+        <v>400.7087766992746</v>
       </c>
       <c r="D54">
-        <v>19649.25800012063</v>
+        <v>19649.25800012068</v>
       </c>
       <c r="E54">
-        <v>11404.75062926481</v>
+        <v>11404.75062926483</v>
       </c>
       <c r="F54">
-        <v>9909.395389926862</v>
+        <v>9909.395389926891</v>
       </c>
       <c r="G54">
-        <v>6.789032361134463</v>
+        <v>6.789032361134542</v>
       </c>
       <c r="H54">
-        <v>27.69055894114138</v>
+        <v>27.69055894114129</v>
       </c>
       <c r="I54">
-        <v>3.123037156211299E-09</v>
+        <v>3.123037156211239E-09</v>
       </c>
       <c r="J54">
-        <v>3.410643465863508E-09</v>
+        <v>3.410643465863445E-09</v>
       </c>
       <c r="K54">
-        <v>0.000305322281815544</v>
+        <v>0.000305322281815548</v>
       </c>
       <c r="L54">
-        <v>0.06004573363967418</v>
+        <v>0.06004573363967464</v>
       </c>
       <c r="M54">
-        <v>558.9176501087455</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.06004573363967464</v>
+      </c>
+      <c r="N54">
+        <v>558.9176501087485</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>205.8966492572188</v>
+        <v>205.8966492572179</v>
       </c>
       <c r="B55">
-        <v>659566.0220392518</v>
+        <v>659566.0220392235</v>
       </c>
       <c r="C55">
-        <v>430.3663903476699</v>
+        <v>430.3663903476517</v>
       </c>
       <c r="D55">
-        <v>19532.97212747727</v>
+        <v>19532.97212747732</v>
       </c>
       <c r="E55">
-        <v>11315.29301747679</v>
+        <v>11315.29301747685</v>
       </c>
       <c r="F55">
-        <v>9816.491207249619</v>
+        <v>9816.491207249679</v>
       </c>
       <c r="G55">
-        <v>6.735369570411908</v>
+        <v>6.735369570411928</v>
       </c>
       <c r="H55">
-        <v>27.99692274101105</v>
+        <v>27.99692274101087</v>
       </c>
       <c r="I55">
-        <v>3.245762785230575E-09</v>
+        <v>3.245762785230516E-09</v>
       </c>
       <c r="J55">
-        <v>3.540002812895892E-09</v>
+        <v>3.540002812895831E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002971074001274373</v>
+        <v>0.0002971074001274411</v>
       </c>
       <c r="L55">
-        <v>0.05908571110215293</v>
+        <v>0.05908571110215337</v>
       </c>
       <c r="M55">
-        <v>552.3836046340198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.05908571110215337</v>
+      </c>
+      <c r="N55">
+        <v>552.3836046340227</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>207.9318940485746</v>
+        <v>207.9318940485736</v>
       </c>
       <c r="B56">
-        <v>710146.3501667518</v>
+        <v>710146.3501667198</v>
       </c>
       <c r="C56">
-        <v>461.6782102832285</v>
+        <v>461.6782102832078</v>
       </c>
       <c r="D56">
-        <v>19415.52904818051</v>
+        <v>19415.52904818056</v>
       </c>
       <c r="E56">
-        <v>11223.74041346809</v>
+        <v>11223.74041346814</v>
       </c>
       <c r="F56">
-        <v>9722.131937371365</v>
+        <v>9722.131937371407</v>
       </c>
       <c r="G56">
-        <v>6.683129212722745</v>
+        <v>6.683129212722801</v>
       </c>
       <c r="H56">
-        <v>28.33434231773582</v>
+        <v>28.33434231773574</v>
       </c>
       <c r="I56">
-        <v>3.376499974491132E-09</v>
+        <v>3.376499974491077E-09</v>
       </c>
       <c r="J56">
-        <v>3.672431248906148E-09</v>
+        <v>3.672431248906084E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002891591812741296</v>
+        <v>0.0002891591812741333</v>
       </c>
       <c r="L56">
-        <v>0.0581376806190093</v>
+        <v>0.05813768061900973</v>
       </c>
       <c r="M56">
-        <v>545.8377088710337</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.05813768061900973</v>
+      </c>
+      <c r="N56">
+        <v>545.8377088710361</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>209.9671388399304</v>
+        <v>209.9671388399294</v>
       </c>
       <c r="B57">
-        <v>763504.6127803372</v>
+        <v>763504.6127803194</v>
       </c>
       <c r="C57">
-        <v>494.7153865011321</v>
+        <v>494.7153865011221</v>
       </c>
       <c r="D57">
-        <v>19296.83800753052</v>
+        <v>19296.83800753058</v>
       </c>
       <c r="E57">
-        <v>11129.99547547822</v>
+        <v>11129.99547547827</v>
       </c>
       <c r="F57">
-        <v>9626.240847421781</v>
+        <v>9626.240847421841</v>
       </c>
       <c r="G57">
-        <v>6.632076997061665</v>
+        <v>6.632076997061666</v>
       </c>
       <c r="H57">
-        <v>28.7031123966691</v>
+        <v>28.70311239666887</v>
       </c>
       <c r="I57">
-        <v>3.515939575105065E-09</v>
+        <v>3.515939575104993E-09</v>
       </c>
       <c r="J57">
-        <v>3.807987419513771E-09</v>
+        <v>3.807987419513703E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002814598545681091</v>
+        <v>0.0002814598545681127</v>
       </c>
       <c r="L57">
-        <v>0.05720446207195358</v>
+        <v>0.05720446207195405</v>
       </c>
       <c r="M57">
-        <v>539.2763882364982</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.05720446207195405</v>
+      </c>
+      <c r="N57">
+        <v>539.2763882365016</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>212.0023836312862</v>
+        <v>212.0023836312852</v>
       </c>
       <c r="B58">
-        <v>819729.0169269617</v>
+        <v>819729.0169269372</v>
       </c>
       <c r="C58">
-        <v>529.5528425292323</v>
+        <v>529.5528425292174</v>
       </c>
       <c r="D58">
-        <v>19176.80674661905</v>
+        <v>19176.80674661911</v>
       </c>
       <c r="E58">
-        <v>11033.9586424642</v>
+        <v>11033.95864246424</v>
       </c>
       <c r="F58">
-        <v>9528.739968448222</v>
+        <v>9528.739968448264</v>
       </c>
       <c r="G58">
-        <v>6.582016610201955</v>
+        <v>6.582016610201957</v>
       </c>
       <c r="H58">
-        <v>29.10369933751288</v>
+        <v>29.10369933751256</v>
       </c>
       <c r="I58">
-        <v>3.664846576809743E-09</v>
+        <v>3.66484657680966E-09</v>
       </c>
       <c r="J58">
-        <v>3.946744316020656E-09</v>
+        <v>3.94674431602059E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002739935156943538</v>
+        <v>0.0002739935156943573</v>
       </c>
       <c r="L58">
-        <v>0.05628770618499692</v>
+        <v>0.05628770618499737</v>
       </c>
       <c r="M58">
-        <v>532.6960938051087</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.05628770618499737</v>
+      </c>
+      <c r="N58">
+        <v>532.6960938051122</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>214.0376284226419</v>
+        <v>214.0376284226409</v>
       </c>
       <c r="B59">
-        <v>878908.2711885683</v>
+        <v>878908.2711885467</v>
       </c>
       <c r="C59">
-        <v>566.269694660805</v>
+        <v>566.2696946607928</v>
       </c>
       <c r="D59">
-        <v>19055.34121497457</v>
+        <v>19055.34121497464</v>
       </c>
       <c r="E59">
-        <v>10935.52749401155</v>
+        <v>10935.5274940116</v>
       </c>
       <c r="F59">
-        <v>9429.549575076659</v>
+        <v>9429.549575076717</v>
       </c>
       <c r="G59">
-        <v>6.532785509501633</v>
+        <v>6.532785509501744</v>
       </c>
       <c r="H59">
-        <v>29.53674299882524</v>
+        <v>29.53674299882505</v>
       </c>
       <c r="I59">
-        <v>3.824069654739992E-09</v>
+        <v>3.824069654739901E-09</v>
       </c>
       <c r="J59">
-        <v>4.08879035796593E-09</v>
+        <v>4.088790357965852E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002667459175777911</v>
+        <v>0.0002667459175777948</v>
       </c>
       <c r="L59">
-        <v>0.05538803995401792</v>
+        <v>0.05538803995401841</v>
       </c>
       <c r="M59">
-        <v>526.093324635289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.05538803995401841</v>
+      </c>
+      <c r="N59">
+        <v>526.0933246352919</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>216.0728732139978</v>
+        <v>216.0728732139967</v>
       </c>
       <c r="B60">
-        <v>941131.5980710633</v>
+        <v>941131.5980710245</v>
       </c>
       <c r="C60">
-        <v>604.9497305598301</v>
+        <v>604.9497305598052</v>
       </c>
       <c r="D60">
-        <v>18932.34527982238</v>
+        <v>18932.34527982245</v>
       </c>
       <c r="E60">
-        <v>10834.5960717488</v>
+        <v>10834.59607174884</v>
       </c>
       <c r="F60">
-        <v>9328.587637812432</v>
+        <v>9328.587637812478</v>
       </c>
       <c r="G60">
-        <v>6.484251306803092</v>
+        <v>6.4842513068031</v>
       </c>
       <c r="H60">
-        <v>30.00306076397201</v>
+        <v>30.0030607639717</v>
       </c>
       <c r="I60">
-        <v>3.994552165824406E-09</v>
+        <v>3.994552165824306E-09</v>
       </c>
       <c r="J60">
-        <v>4.234230471155113E-09</v>
+        <v>4.234230471155032E-09</v>
       </c>
       <c r="K60">
-        <v>0.0002597042789225152</v>
+        <v>0.0002597042789225191</v>
       </c>
       <c r="L60">
-        <v>0.05450524942697161</v>
+        <v>0.0545052494269721</v>
       </c>
       <c r="M60">
-        <v>519.4646451597588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.0545052494269721</v>
+      </c>
+      <c r="N60">
+        <v>519.4646451597627</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>218.1081180053535</v>
+        <v>218.1081180053525</v>
       </c>
       <c r="B61">
-        <v>1006488.758282955</v>
+        <v>1006488.758282922</v>
       </c>
       <c r="C61">
-        <v>645.68195644297</v>
+        <v>645.6819564429491</v>
       </c>
       <c r="D61">
-        <v>18807.7204307184</v>
+        <v>18807.72043071847</v>
       </c>
       <c r="E61">
-        <v>10731.05415517952</v>
+        <v>10731.05415517957</v>
       </c>
       <c r="F61">
-        <v>9225.769241420856</v>
+        <v>9225.769241420918</v>
       </c>
       <c r="G61">
-        <v>6.436308682016922</v>
+        <v>6.436308682016891</v>
       </c>
       <c r="H61">
-        <v>30.50365387459685</v>
+        <v>30.50365387459644</v>
       </c>
       <c r="I61">
-        <v>4.177344853592034E-09</v>
+        <v>4.177344853591923E-09</v>
       </c>
       <c r="J61">
-        <v>4.383187172192058E-09</v>
+        <v>4.383187172191977E-09</v>
       </c>
       <c r="K61">
-        <v>0.0002528571086167951</v>
+        <v>0.0002528571086167985</v>
       </c>
       <c r="L61">
-        <v>0.05363847173401518</v>
+        <v>0.05363847173401565</v>
       </c>
       <c r="M61">
-        <v>512.8066982712469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.05363847173401565</v>
+      </c>
+      <c r="N61">
+        <v>512.8066982712512</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>220.1433627967093</v>
+        <v>220.1433627967083</v>
       </c>
       <c r="B62">
-        <v>1075070.088291547</v>
+        <v>1075070.088291517</v>
       </c>
       <c r="C62">
-        <v>688.5612235048347</v>
+        <v>688.5612235048177</v>
       </c>
       <c r="D62">
-        <v>18681.36547822614</v>
+        <v>18681.3654782262</v>
       </c>
       <c r="E62">
-        <v>10624.78648452694</v>
+        <v>10624.78648452699</v>
       </c>
       <c r="F62">
-        <v>9121.005962446145</v>
+        <v>9121.005962446185</v>
       </c>
       <c r="G62">
-        <v>6.388876771241136</v>
+        <v>6.388876771241171</v>
       </c>
       <c r="H62">
-        <v>31.03971628205039</v>
+        <v>31.03971628205019</v>
       </c>
       <c r="I62">
-        <v>4.373620574390749E-09</v>
+        <v>4.373620574390659E-09</v>
       </c>
       <c r="J62">
-        <v>4.535801671663967E-09</v>
+        <v>4.535801671663892E-09</v>
       </c>
       <c r="K62">
-        <v>0.0002461940446300854</v>
+        <v>0.0002461940446300885</v>
       </c>
       <c r="L62">
-        <v>0.05278637616579382</v>
+        <v>0.05278637616579425</v>
       </c>
       <c r="M62">
-        <v>506.1162146467408</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.05278637616579425</v>
+      </c>
+      <c r="N62">
+        <v>506.1162146467437</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>222.1786075880651</v>
+        <v>222.178607588064</v>
       </c>
       <c r="B63">
-        <v>1146966.552695616</v>
+        <v>1146966.552695578</v>
       </c>
       <c r="C63">
-        <v>733.6889459406143</v>
+        <v>733.688945940591</v>
       </c>
       <c r="D63">
-        <v>18553.17624516291</v>
+        <v>18553.17624516299</v>
       </c>
       <c r="E63">
-        <v>10515.67192280166</v>
+        <v>10515.67192280173</v>
       </c>
       <c r="F63">
-        <v>9014.205198453725</v>
+        <v>9014.205198453792</v>
       </c>
       <c r="G63">
-        <v>6.341896980186875</v>
+        <v>6.341896980186871</v>
       </c>
       <c r="H63">
-        <v>31.61264630558366</v>
+        <v>31.6126463055833</v>
       </c>
       <c r="I63">
-        <v>4.584691425521091E-09</v>
+        <v>4.584691425520954E-09</v>
       </c>
       <c r="J63">
-        <v>4.692235009218923E-09</v>
+        <v>4.692235009218825E-09</v>
       </c>
       <c r="K63">
-        <v>0.0002397057063570885</v>
+        <v>0.0002397057063570922</v>
       </c>
       <c r="L63">
-        <v>0.0519473223974803</v>
+        <v>0.0519473223974808</v>
       </c>
       <c r="M63">
-        <v>499.3900187701128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.0519473223974808</v>
+      </c>
+      <c r="N63">
+        <v>499.3900187701175</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>224.2138523794209</v>
+        <v>224.2138523794198</v>
       </c>
       <c r="B64">
-        <v>1222269.813111449</v>
+        <v>1222269.813111414</v>
       </c>
       <c r="C64">
-        <v>781.17392486837</v>
+        <v>781.173924868349</v>
       </c>
       <c r="D64">
-        <v>18423.04524872957</v>
+        <v>18423.04524872965</v>
       </c>
       <c r="E64">
-        <v>10403.58254885065</v>
+        <v>10403.58254885069</v>
       </c>
       <c r="F64">
-        <v>8905.269441009088</v>
+        <v>8905.269441009139</v>
       </c>
       <c r="G64">
-        <v>6.295331179226658</v>
+        <v>6.29533117922668</v>
       </c>
       <c r="H64">
-        <v>32.22406148267405</v>
+        <v>32.22406148267371</v>
       </c>
       <c r="I64">
-        <v>4.81202874032751E-09</v>
+        <v>4.812028740327368E-09</v>
       </c>
       <c r="J64">
-        <v>4.852669234908267E-09</v>
+        <v>4.852669234908172E-09</v>
       </c>
       <c r="K64">
-        <v>0.0002333835596105451</v>
+        <v>0.0002333835596105486</v>
       </c>
       <c r="L64">
-        <v>0.05111949093977523</v>
+        <v>0.05111949093977569</v>
       </c>
       <c r="M64">
-        <v>492.6250320340275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.05111949093977569</v>
+      </c>
+      <c r="N64">
+        <v>492.6250320340319</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>226.2490971707767</v>
+        <v>226.2490971707756</v>
       </c>
       <c r="B65">
-        <v>1301072.315427809</v>
+        <v>1301072.315427778</v>
       </c>
       <c r="C65">
-        <v>831.133294697839</v>
+        <v>831.1332946978214</v>
       </c>
       <c r="D65">
-        <v>18290.86137153013</v>
+        <v>18290.86137153019</v>
       </c>
       <c r="E65">
-        <v>10288.382672625</v>
+        <v>10288.38267262506</v>
       </c>
       <c r="F65">
-        <v>8794.095483720868</v>
+        <v>8794.095483720928</v>
       </c>
       <c r="G65">
-        <v>6.249160241510608</v>
+        <v>6.249160241510598</v>
       </c>
       <c r="H65">
-        <v>32.87581711715389</v>
+        <v>32.87581711715346</v>
       </c>
       <c r="I65">
-        <v>5.057286521823273E-09</v>
+        <v>5.057286521823137E-09</v>
       </c>
       <c r="J65">
-        <v>5.017308652435762E-09</v>
+        <v>5.017308652435677E-09</v>
       </c>
       <c r="K65">
-        <v>0.0002272197936457258</v>
+        <v>0.000227219793645729</v>
       </c>
       <c r="L65">
-        <v>0.05030098586824384</v>
+        <v>0.05030098586824427</v>
       </c>
       <c r="M65">
-        <v>485.8182732282636</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.05030098586824427</v>
+      </c>
+      <c r="N65">
+        <v>485.8182732282673</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>228.2843419621325</v>
+        <v>228.2843419621314</v>
       </c>
       <c r="B66">
-        <v>1383467.397443087</v>
+        <v>1383467.397443035</v>
       </c>
       <c r="C66">
-        <v>883.6936110751313</v>
+        <v>883.6936110750972</v>
       </c>
       <c r="D66">
-        <v>18156.50951905753</v>
+        <v>18156.50951905761</v>
       </c>
       <c r="E66">
-        <v>10169.9277633221</v>
+        <v>10169.92776332218</v>
       </c>
       <c r="F66">
-        <v>8680.573555871322</v>
+        <v>8680.573555871391</v>
       </c>
       <c r="G66">
-        <v>6.203382890327831</v>
+        <v>6.20338289032784</v>
       </c>
       <c r="H66">
-        <v>33.57002918207751</v>
+        <v>33.57002918207711</v>
       </c>
       <c r="I66">
-        <v>5.322329021527399E-09</v>
+        <v>5.322329021527246E-09</v>
       </c>
       <c r="J66">
-        <v>5.186381141462724E-09</v>
+        <v>5.186381141462632E-09</v>
       </c>
       <c r="K66">
-        <v>0.0002212072097294139</v>
+        <v>0.0002212072097294174</v>
       </c>
       <c r="L66">
-        <v>0.04948991285958889</v>
+        <v>0.04948991285958934</v>
       </c>
       <c r="M66">
-        <v>478.9668566532651</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.04948991285958934</v>
+      </c>
+      <c r="N66">
+        <v>478.9668566532691</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>230.3195867534883</v>
+        <v>230.3195867534871</v>
       </c>
       <c r="B67">
-        <v>1469549.419041834</v>
+        <v>1469549.419041787</v>
       </c>
       <c r="C67">
-        <v>938.9921024866431</v>
+        <v>938.9921024866134</v>
       </c>
       <c r="D67">
-        <v>18019.87026062429</v>
+        <v>18019.87026062437</v>
       </c>
       <c r="E67">
-        <v>10048.06328043942</v>
+        <v>10048.06328043947</v>
       </c>
       <c r="F67">
-        <v>8564.586371230218</v>
+        <v>8564.586371230271</v>
       </c>
       <c r="G67">
-        <v>6.158014826201517</v>
+        <v>6.158014826201555</v>
       </c>
       <c r="H67">
-        <v>34.30910242599307</v>
+        <v>34.30910242599263</v>
       </c>
       <c r="I67">
-        <v>5.609263342663062E-09</v>
+        <v>5.609263342662893E-09</v>
       </c>
       <c r="J67">
-        <v>5.360139577991918E-09</v>
+        <v>5.360139577991821E-09</v>
       </c>
       <c r="K67">
-        <v>0.0002153391208553172</v>
+        <v>0.0002153391208553204</v>
       </c>
       <c r="L67">
-        <v>0.04868443693787265</v>
+        <v>0.0486844369378731</v>
       </c>
       <c r="M67">
-        <v>472.0679880350279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.0486844369378731</v>
+      </c>
+      <c r="N67">
+        <v>472.0679880350316</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>232.3548315448441</v>
+        <v>232.3548315448429</v>
       </c>
       <c r="B68">
-        <v>1559413.917191491</v>
+        <v>1559413.917191421</v>
       </c>
       <c r="C68">
-        <v>997.1781109635696</v>
+        <v>997.1781109635206</v>
       </c>
       <c r="D68">
-        <v>17880.81944990189</v>
+        <v>17880.81944990197</v>
       </c>
       <c r="E68">
-        <v>9922.623397168107</v>
+        <v>9922.623397168203</v>
       </c>
       <c r="F68">
-        <v>8446.008080612379</v>
+        <v>8446.008080612466</v>
       </c>
       <c r="G68">
-        <v>6.113088108111202</v>
+        <v>6.113088108111272</v>
       </c>
       <c r="H68">
-        <v>35.09576477597019</v>
+        <v>35.0957647759699</v>
       </c>
       <c r="I68">
-        <v>5.920478168538274E-09</v>
+        <v>5.920478168538104E-09</v>
       </c>
       <c r="J68">
-        <v>5.538863374244504E-09</v>
+        <v>5.538863374244402E-09</v>
       </c>
       <c r="K68">
-        <v>0.0002096092622651564</v>
+        <v>0.0002096092622651594</v>
       </c>
       <c r="L68">
-        <v>0.04788282459891526</v>
+        <v>0.0478828245989157</v>
       </c>
       <c r="M68">
-        <v>465.1189583605483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.0478828245989157</v>
+      </c>
+      <c r="N68">
+        <v>465.1189583605519</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>234.3900763361999</v>
+        <v>234.3900763361987</v>
       </c>
       <c r="B69">
-        <v>1653157.788118876</v>
+        <v>1653157.788118817</v>
       </c>
       <c r="C69">
-        <v>1058.414751094063</v>
+        <v>1058.414751094024</v>
       </c>
       <c r="D69">
-        <v>17739.22782013089</v>
+        <v>17739.22782013097</v>
       </c>
       <c r="E69">
-        <v>9793.429605043104</v>
+        <v>9793.429605043168</v>
       </c>
       <c r="F69">
-        <v>8324.703115630396</v>
+        <v>8324.703115630458</v>
       </c>
       <c r="G69">
-        <v>6.068650766768337</v>
+        <v>6.068650766768313</v>
       </c>
       <c r="H69">
-        <v>35.93310944499233</v>
+        <v>35.93310944499171</v>
       </c>
       <c r="I69">
-        <v>6.258690003846854E-09</v>
+        <v>6.258690003846626E-09</v>
       </c>
       <c r="J69">
-        <v>5.722860162548683E-09</v>
+        <v>5.722860162548572E-09</v>
       </c>
       <c r="K69">
-        <v>0.0002040117124667949</v>
+        <v>0.0002040117124667983</v>
       </c>
       <c r="L69">
-        <v>0.04708347458152268</v>
+        <v>0.04708347458152319</v>
       </c>
       <c r="M69">
-        <v>458.1171357020474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.04708347458152319</v>
+      </c>
+      <c r="N69">
+        <v>458.1171357020523</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>236.4253211275557</v>
+        <v>236.4253211275545</v>
       </c>
       <c r="B70">
-        <v>1750879.499037666</v>
+        <v>1750879.499037621</v>
       </c>
       <c r="C70">
-        <v>1122.880820696989</v>
+        <v>1122.880820696962</v>
       </c>
       <c r="D70">
-        <v>17594.960547585</v>
+        <v>17594.96054758509</v>
       </c>
       <c r="E70">
-        <v>9660.28918850288</v>
+        <v>9660.289188502933</v>
       </c>
       <c r="F70">
-        <v>8200.524909992981</v>
+        <v>8200.524909993033</v>
       </c>
       <c r="G70">
-        <v>6.024766631019975</v>
+        <v>6.024766631020032</v>
       </c>
       <c r="H70">
-        <v>36.8246465572105</v>
+        <v>36.82464655721008</v>
       </c>
       <c r="I70">
-        <v>6.626998690696569E-09</v>
+        <v>6.626998690696347E-09</v>
       </c>
       <c r="J70">
-        <v>5.912467651828602E-09</v>
+        <v>5.91246765182848E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001985408244527447</v>
+        <v>0.0001985408244527479</v>
       </c>
       <c r="L70">
-        <v>0.04628494082458114</v>
+        <v>0.04628494082458165</v>
       </c>
       <c r="M70">
-        <v>451.0599550536576</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.04628494082458165</v>
+      </c>
+      <c r="N70">
+        <v>451.0599550536616</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>238.4605659189115</v>
+        <v>238.4605659189102</v>
       </c>
       <c r="B71">
-        <v>1852679.331697107</v>
+        <v>1852679.331697041</v>
       </c>
       <c r="C71">
-        <v>1190.773000935102</v>
+        <v>1190.773000935058</v>
       </c>
       <c r="D71">
-        <v>17447.87677490205</v>
+        <v>17447.87677490213</v>
       </c>
       <c r="E71">
-        <v>9522.993558241338</v>
+        <v>9522.993558241407</v>
       </c>
       <c r="F71">
-        <v>8073.314483748446</v>
+        <v>8073.314483748506</v>
       </c>
       <c r="G71">
-        <v>5.981515351292362</v>
+        <v>5.981515351292392</v>
       </c>
       <c r="H71">
-        <v>37.77436663180845</v>
+        <v>37.77436663180787</v>
       </c>
       <c r="I71">
-        <v>7.028954452538097E-09</v>
+        <v>7.02895445253786E-09</v>
       </c>
       <c r="J71">
-        <v>6.10805569064432E-09</v>
+        <v>6.108055690644205E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001931911668176066</v>
+        <v>0.0001931911668176095</v>
       </c>
       <c r="L71">
-        <v>0.04548595031023196</v>
+        <v>0.04548595031023239</v>
       </c>
       <c r="M71">
-        <v>443.9449061663936</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.04548595031023239</v>
+      </c>
+      <c r="N71">
+        <v>443.9449061663974</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>240.4958107102673</v>
+        <v>240.495810710266</v>
       </c>
       <c r="B72">
-        <v>1958659.659749609</v>
+        <v>1958659.659749527</v>
       </c>
       <c r="C72">
-        <v>1262.308388127829</v>
+        <v>1262.30838812777</v>
       </c>
       <c r="D72">
-        <v>17297.82908328322</v>
+        <v>17297.82908328331</v>
       </c>
       <c r="E72">
-        <v>9381.316433347278</v>
+        <v>9381.316433347372</v>
       </c>
       <c r="F72">
-        <v>7942.898875325371</v>
+        <v>7942.898875325453</v>
       </c>
       <c r="G72">
-        <v>5.938992606519293</v>
+        <v>5.938992606519288</v>
       </c>
       <c r="H72">
-        <v>38.78681895505159</v>
+        <v>38.78681895505095</v>
       </c>
       <c r="I72">
-        <v>7.468639369661807E-09</v>
+        <v>7.468639369661538E-09</v>
       </c>
       <c r="J72">
-        <v>6.310028577823731E-09</v>
+        <v>6.310028577823614E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001879574744533313</v>
+        <v>0.0001879574744533343</v>
       </c>
       <c r="L72">
-        <v>0.04468541767378809</v>
+        <v>0.04468541767378854</v>
       </c>
       <c r="M72">
-        <v>436.7695193370144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.04468541767378854</v>
+      </c>
+      <c r="N72">
+        <v>436.769519337019</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>242.5310555016231</v>
+        <v>242.5310555016218</v>
       </c>
       <c r="B73">
-        <v>2068925.261400881</v>
+        <v>2068925.261400816</v>
       </c>
       <c r="C73">
-        <v>1337.727403647067</v>
+        <v>1337.727403647024</v>
       </c>
       <c r="D73">
-        <v>17144.66289911352</v>
+        <v>17144.66289911361</v>
       </c>
       <c r="E73">
-        <v>9235.011864825292</v>
+        <v>9235.01186482539</v>
       </c>
       <c r="F73">
-        <v>7809.08940648818</v>
+        <v>7809.089406488266</v>
       </c>
       <c r="G73">
-        <v>5.897310483326405</v>
+        <v>5.897310483326454</v>
       </c>
       <c r="H73">
-        <v>39.86720877562924</v>
+        <v>39.8672087756286</v>
       </c>
       <c r="I73">
-        <v>7.950767058122413E-09</v>
+        <v>7.95076705812213E-09</v>
       </c>
       <c r="J73">
-        <v>6.518827671125496E-09</v>
+        <v>6.518827671125368E-09</v>
       </c>
       <c r="K73">
-        <v>0.00018283460846677</v>
+        <v>0.000182834608466773</v>
       </c>
       <c r="L73">
-        <v>0.04388245772494096</v>
+        <v>0.04388245772494142</v>
       </c>
       <c r="M73">
-        <v>429.5313490839288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.04388245772494142</v>
+      </c>
+      <c r="N73">
+        <v>429.5313490839325</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>244.5663002929789</v>
+        <v>244.5663002929776</v>
       </c>
       <c r="B74">
-        <v>2183583.667873669</v>
+        <v>2183583.667873599</v>
       </c>
       <c r="C74">
-        <v>1417.297131302994</v>
+        <v>1417.297131302945</v>
       </c>
       <c r="D74">
-        <v>16988.21581601531</v>
+        <v>16988.21581601541</v>
       </c>
       <c r="E74">
-        <v>9083.812098093886</v>
+        <v>9083.81209809396</v>
       </c>
       <c r="F74">
-        <v>7671.679767065252</v>
+        <v>7671.67976706532</v>
       </c>
       <c r="G74">
-        <v>5.856598018435245</v>
+        <v>5.856598018435267</v>
       </c>
       <c r="H74">
-        <v>41.02151845692823</v>
+        <v>41.02151845692742</v>
       </c>
       <c r="I74">
-        <v>8.48080549262398E-09</v>
+        <v>8.480805492623596E-09</v>
       </c>
       <c r="J74">
-        <v>6.734934356856015E-09</v>
+        <v>6.734934356855867E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001778175249133924</v>
+        <v>0.0001778175249133958</v>
       </c>
       <c r="L74">
-        <v>0.0430763963970147</v>
+        <v>0.04307639639701525</v>
       </c>
       <c r="M74">
-        <v>422.2279556291804</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.04307639639701525</v>
+      </c>
+      <c r="N74">
+        <v>422.2279556291856</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>246.6015450843346</v>
+        <v>246.6015450843333</v>
       </c>
       <c r="B75">
-        <v>2302745.546699343</v>
+        <v>2302745.546699261</v>
       </c>
       <c r="C75">
-        <v>1501.31513231801</v>
+        <v>1501.315132317949</v>
       </c>
       <c r="D75">
-        <v>16828.31680737294</v>
+        <v>16828.31680737304</v>
       </c>
       <c r="E75">
-        <v>8927.425280814978</v>
+        <v>8927.42528081506</v>
       </c>
       <c r="F75">
-        <v>7530.443910536221</v>
+        <v>7530.443910536289</v>
       </c>
       <c r="G75">
-        <v>5.81700189745334</v>
+        <v>5.817001897453346</v>
       </c>
       <c r="H75">
-        <v>42.25665931858121</v>
+        <v>42.25665931858033</v>
       </c>
       <c r="I75">
-        <v>9.065129501331126E-09</v>
+        <v>9.065129501330721E-09</v>
       </c>
       <c r="J75">
-        <v>6.958873459990109E-09</v>
+        <v>6.958873459989959E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001729012518707847</v>
+        <v>0.0001729012518707878</v>
       </c>
       <c r="L75">
-        <v>0.04226678012573467</v>
+        <v>0.0422667801257352</v>
       </c>
       <c r="M75">
-        <v>414.8568840987777</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.0422667801257352</v>
+      </c>
+      <c r="N75">
+        <v>414.8568840987827</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>248.6367898756905</v>
+        <v>248.6367898756891</v>
       </c>
       <c r="B76">
-        <v>2426525.116464577</v>
+        <v>2426525.116464485</v>
       </c>
       <c r="C76">
-        <v>1590.113784324026</v>
+        <v>1590.113784323956</v>
       </c>
       <c r="D76">
-        <v>16664.78529649917</v>
+        <v>16664.78529649927</v>
       </c>
       <c r="E76">
-        <v>8765.533036906865</v>
+        <v>8765.533036906967</v>
       </c>
       <c r="F76">
-        <v>7385.133759834502</v>
+        <v>7385.133759834586</v>
       </c>
       <c r="G76">
-        <v>5.778687305647012</v>
+        <v>5.778687305647016</v>
       </c>
       <c r="H76">
-        <v>43.58066305104357</v>
+        <v>43.58066305104274</v>
       </c>
       <c r="I76">
-        <v>9.711211637657505E-09</v>
+        <v>9.711211637657104E-09</v>
       </c>
       <c r="J76">
-        <v>7.191217196555765E-09</v>
+        <v>7.191217196555624E-09</v>
       </c>
       <c r="K76">
-        <v>0.0001680808742800669</v>
+        <v>0.0001680808742800698</v>
       </c>
       <c r="L76">
-        <v>0.04145338325189669</v>
+        <v>0.04145338325189718</v>
       </c>
       <c r="M76">
-        <v>407.4156413516238</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.04145338325189718</v>
+      </c>
+      <c r="N76">
+        <v>407.4156413516283</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>250.6720346670462</v>
+        <v>250.6720346670449</v>
       </c>
       <c r="B77">
-        <v>2555040.585989628</v>
+        <v>2555040.585989582</v>
       </c>
       <c r="C77">
-        <v>1684.065179616859</v>
+        <v>1684.065179616836</v>
       </c>
       <c r="D77">
-        <v>16497.43004121926</v>
+        <v>16497.43004121937</v>
       </c>
       <c r="E77">
-        <v>8597.787950635258</v>
+        <v>8597.78795063532</v>
       </c>
       <c r="F77">
-        <v>7235.47673731444</v>
+        <v>7235.476737314498</v>
       </c>
       <c r="G77">
-        <v>5.741838929223035</v>
+        <v>5.741838929223049</v>
       </c>
       <c r="H77">
-        <v>45.00292451174478</v>
+        <v>45.00292451174388</v>
       </c>
       <c r="I77">
-        <v>1.042786315090143E-08</v>
+        <v>1.042786315090094E-08</v>
       </c>
       <c r="J77">
-        <v>7.432589799838682E-09</v>
+        <v>7.432589799838519E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001633515258545714</v>
+        <v>0.0001633515258545744</v>
       </c>
       <c r="L77">
-        <v>0.04063621273754801</v>
+        <v>0.04063621273754855</v>
       </c>
       <c r="M77">
-        <v>399.9016703442099</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.04063621273754855</v>
+      </c>
+      <c r="N77">
+        <v>399.9016703442151</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>252.707279458402</v>
+        <v>252.7072794584007</v>
       </c>
       <c r="B78">
-        <v>2688414.605438477</v>
+        <v>2688414.605438326</v>
       </c>
       <c r="C78">
-        <v>1783.586594252987</v>
+        <v>1783.586594252855</v>
       </c>
       <c r="D78">
-        <v>16326.04777583054</v>
+        <v>16326.04777583066</v>
       </c>
       <c r="E78">
-        <v>8423.811040119235</v>
+        <v>8423.811040119419</v>
       </c>
       <c r="F78">
-        <v>7081.173157032566</v>
+        <v>7081.173157032714</v>
       </c>
       <c r="G78">
-        <v>5.706662109575425</v>
+        <v>5.706662109575436</v>
       </c>
       <c r="H78">
-        <v>46.53451173412601</v>
+        <v>46.53451173412492</v>
       </c>
       <c r="I78">
-        <v>1.122554100514654E-08</v>
+        <v>1.122554100514594E-08</v>
       </c>
       <c r="J78">
-        <v>7.683672992146494E-09</v>
+        <v>7.683672992146312E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001587083871818018</v>
+        <v>0.0001587083871818051</v>
       </c>
       <c r="L78">
-        <v>0.03981550927831588</v>
+        <v>0.03981550927831648</v>
       </c>
       <c r="M78">
-        <v>392.3123219217414</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.03981550927831648</v>
+      </c>
+      <c r="N78">
+        <v>392.3123219217471</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>254.7425242497578</v>
+        <v>254.7425242497564</v>
       </c>
       <c r="B79">
-        <v>2826774.708779856</v>
+        <v>2826774.708779776</v>
       </c>
       <c r="C79">
-        <v>1889.146496143812</v>
+        <v>1889.146496143756</v>
       </c>
       <c r="D79">
-        <v>16150.42153485432</v>
+        <v>16150.42153485447</v>
       </c>
       <c r="E79">
-        <v>8243.189352483889</v>
+        <v>8243.189352484016</v>
       </c>
       <c r="F79">
-        <v>6921.893555841053</v>
+        <v>6921.893555841176</v>
       </c>
       <c r="G79">
-        <v>5.673384158526595</v>
+        <v>5.673384158526601</v>
       </c>
       <c r="H79">
-        <v>48.18856458752249</v>
+        <v>48.18856458752103</v>
       </c>
       <c r="I79">
-        <v>1.211674289291901E-08</v>
+        <v>1.211674289291821E-08</v>
       </c>
       <c r="J79">
-        <v>7.945212528463019E-09</v>
+        <v>7.945212528462813E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001541466889116726</v>
+        <v>0.0001541466889116762</v>
       </c>
       <c r="L79">
-        <v>0.03899174378240854</v>
+        <v>0.0389917437824092</v>
       </c>
       <c r="M79">
-        <v>384.6448238747804</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.0389917437824092</v>
+      </c>
+      <c r="N79">
+        <v>384.6448238747872</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>256.7777690411136</v>
+        <v>256.7777690411122</v>
       </c>
       <c r="B80">
-        <v>2970253.715297447</v>
+        <v>2970253.715297319</v>
       </c>
       <c r="C80">
-        <v>2001.270986574491</v>
+        <v>2001.27098657438</v>
       </c>
       <c r="D80">
-        <v>15970.31855780928</v>
+        <v>15970.31855780939</v>
       </c>
       <c r="E80">
-        <v>8055.473889296319</v>
+        <v>8055.473889296492</v>
       </c>
       <c r="F80">
-        <v>6757.276098179507</v>
+        <v>6757.276098179651</v>
       </c>
       <c r="G80">
-        <v>5.642255850886456</v>
+        <v>5.642255850886503</v>
       </c>
       <c r="H80">
-        <v>49.98081145728093</v>
+        <v>49.98081145727988</v>
       </c>
       <c r="I80">
-        <v>1.31165208123079E-08</v>
+        <v>1.311652081230729E-08</v>
       </c>
       <c r="J80">
-        <v>8.218026113164476E-09</v>
+        <v>8.218026113164306E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001496617186108087</v>
+        <v>0.0001496617186108113</v>
       </c>
       <c r="L80">
-        <v>0.0381656081665302</v>
+        <v>0.03816560816653069</v>
       </c>
       <c r="M80">
-        <v>376.8962469757095</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.03816560816653069</v>
+      </c>
+      <c r="N80">
+        <v>376.8962469757136</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>258.8130138324694</v>
+        <v>258.813013832468</v>
       </c>
       <c r="B81">
-        <v>3118990.041129076</v>
+        <v>3118990.04112896</v>
       </c>
       <c r="C81">
-        <v>2120.550451266444</v>
+        <v>2120.550451266346</v>
       </c>
       <c r="D81">
-        <v>15785.4876394753</v>
+        <v>15785.48763947544</v>
       </c>
       <c r="E81">
-        <v>7860.178177036763</v>
+        <v>7860.17817703692</v>
       </c>
       <c r="F81">
-        <v>6586.924274813859</v>
+        <v>6586.924274814</v>
       </c>
       <c r="G81">
-        <v>5.613553123296778</v>
+        <v>5.613553123296766</v>
       </c>
       <c r="H81">
-        <v>51.93024472262051</v>
+        <v>51.93024472261872</v>
       </c>
       <c r="I81">
-        <v>1.424315635771391E-08</v>
+        <v>1.424315635771295E-08</v>
       </c>
       <c r="J81">
-        <v>8.503013094775024E-09</v>
+        <v>8.503013094774805E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001452488294408895</v>
+        <v>0.0001452488294408928</v>
       </c>
       <c r="L81">
-        <v>0.0373379994843643</v>
+        <v>0.03733799948436491</v>
       </c>
       <c r="M81">
-        <v>369.0634674474912</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.03733799948436491</v>
+      </c>
+      <c r="N81">
+        <v>369.0634674474977</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>260.8482586238252</v>
+        <v>260.8482586238238</v>
       </c>
       <c r="B82">
-        <v>3273127.848505811</v>
+        <v>3273127.84850572</v>
       </c>
       <c r="C82">
-        <v>2247.646016676566</v>
+        <v>2247.646016676497</v>
       </c>
       <c r="D82">
-        <v>15595.65574127453</v>
+        <v>15595.65574127465</v>
       </c>
       <c r="E82">
-        <v>7656.77793683961</v>
+        <v>7656.777936839719</v>
       </c>
       <c r="F82">
-        <v>6410.40523453339</v>
+        <v>6410.405234533485</v>
       </c>
       <c r="G82">
-        <v>5.587579027832902</v>
+        <v>5.587579027832922</v>
       </c>
       <c r="H82">
-        <v>54.06001252137439</v>
+        <v>54.06001252137276</v>
       </c>
       <c r="I82">
-        <v>1.551905953650818E-08</v>
+        <v>1.551905953650724E-08</v>
       </c>
       <c r="J82">
-        <v>8.801166489727623E-09</v>
+        <v>8.801166489727418E-09</v>
       </c>
       <c r="K82">
-        <v>0.000140903448248961</v>
+        <v>0.0001409034482489638</v>
       </c>
       <c r="L82">
-        <v>0.03650999654159335</v>
+        <v>0.0365099965415939</v>
       </c>
       <c r="M82">
-        <v>361.143124815624</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.0365099965415939</v>
+      </c>
+      <c r="N82">
+        <v>361.1431248156293</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>262.883503415181</v>
+        <v>262.8835034151796</v>
       </c>
       <c r="B83">
-        <v>3432816.928770347</v>
+        <v>3432816.928770226</v>
       </c>
       <c r="C83">
-        <v>2383.29514700352</v>
+        <v>2383.295147003414</v>
       </c>
       <c r="D83">
-        <v>15400.5236094117</v>
+        <v>15400.52360941181</v>
       </c>
       <c r="E83">
-        <v>7444.712475779295</v>
+        <v>7444.71247577947</v>
       </c>
       <c r="F83">
-        <v>6227.249241935343</v>
+        <v>6227.249241935488</v>
       </c>
       <c r="G83">
-        <v>5.564666019256634</v>
+        <v>5.564666019256652</v>
       </c>
       <c r="H83">
-        <v>56.39860926579961</v>
+        <v>56.39860926579859</v>
       </c>
       <c r="I83">
-        <v>1.697198111326631E-08</v>
+        <v>1.697198111326555E-08</v>
       </c>
       <c r="J83">
-        <v>9.113588094754928E-09</v>
+        <v>9.113588094754738E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001366210798820405</v>
+        <v>0.0001366210798820429</v>
       </c>
       <c r="L83">
-        <v>0.03568282833932118</v>
+        <v>0.03568282833932165</v>
       </c>
       <c r="M83">
-        <v>353.1315731898424</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.03568282833932165</v>
+      </c>
+      <c r="N83">
+        <v>353.1315731898465</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>264.9187482065368</v>
+        <v>264.9187482065353</v>
       </c>
       <c r="B84">
-        <v>3598212.174195962</v>
+        <v>3598212.174195827</v>
       </c>
       <c r="C84">
-        <v>2528.315368948901</v>
+        <v>2528.315368948774</v>
       </c>
       <c r="D84">
-        <v>15199.76004317209</v>
+        <v>15199.76004317224</v>
       </c>
       <c r="E84">
-        <v>7223.388592998572</v>
+        <v>7223.388592998747</v>
       </c>
       <c r="F84">
-        <v>6036.950932424785</v>
+        <v>6036.950932424932</v>
       </c>
       <c r="G84">
-        <v>5.545178702485784</v>
+        <v>5.54517870248581</v>
       </c>
       <c r="H84">
-        <v>58.98148551614799</v>
+        <v>58.98148551614636</v>
       </c>
       <c r="I84">
-        <v>1.863667193127082E-08</v>
+        <v>1.863667193126961E-08</v>
       </c>
       <c r="J84">
-        <v>9.441507751115091E-09</v>
+        <v>9.44150775111485E-09</v>
       </c>
       <c r="K84">
-        <v>0.000132397303473924</v>
+        <v>0.0001323973034739271</v>
       </c>
       <c r="L84">
-        <v>0.03485783388803484</v>
+        <v>0.03485783388803543</v>
       </c>
       <c r="M84">
-        <v>345.0248224669953</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.03485783388803543</v>
+      </c>
+      <c r="N84">
+        <v>345.024822467001</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>266.9539929978926</v>
+        <v>266.9539929978911</v>
       </c>
       <c r="B85">
-        <v>3769472.443583881</v>
+        <v>3769472.443583843</v>
       </c>
       <c r="C85">
-        <v>2683.604697040733</v>
+        <v>2683.604697040746</v>
       </c>
       <c r="D85">
-        <v>14992.99430469189</v>
+        <v>14992.99430469209</v>
       </c>
       <c r="E85">
-        <v>6992.187899311366</v>
+        <v>6992.187899311426</v>
       </c>
       <c r="F85">
-        <v>5838.973195047151</v>
+        <v>5838.973195047224</v>
       </c>
       <c r="G85">
-        <v>5.529517241910018</v>
+        <v>5.529517241909998</v>
       </c>
       <c r="H85">
-        <v>61.85325745225067</v>
+        <v>61.85325745224781</v>
       </c>
       <c r="I85">
-        <v>2.055719114251281E-08</v>
+        <v>2.055719114251088E-08</v>
       </c>
       <c r="J85">
-        <v>9.786308273887886E-09</v>
+        <v>9.786308273887575E-09</v>
       </c>
       <c r="K85">
-        <v>0.0001282277549765164</v>
+        <v>0.0001282277549765201</v>
       </c>
       <c r="L85">
-        <v>0.03403641309302433</v>
+        <v>0.03403641309302509</v>
       </c>
       <c r="M85">
-        <v>336.8184633734306</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.03403641309302509</v>
+      </c>
+      <c r="N85">
+        <v>336.8184633734386</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>268.9892377892484</v>
+        <v>268.9892377892469</v>
       </c>
       <c r="B86">
-        <v>3946758.572016145</v>
+        <v>3946758.572015981</v>
       </c>
       <c r="C86">
-        <v>2850.136947889192</v>
+        <v>2850.136947889017</v>
       </c>
       <c r="D86">
-        <v>14779.80593180303</v>
+        <v>14779.80593180318</v>
       </c>
       <c r="E86">
-        <v>6750.478340669316</v>
+        <v>6750.478340669534</v>
       </c>
       <c r="F86">
-        <v>5632.754551129798</v>
+        <v>5632.754551129974</v>
       </c>
       <c r="G86">
-        <v>5.518121752574818</v>
+        <v>5.518121752574824</v>
       </c>
       <c r="H86">
-        <v>65.07079180705374</v>
+        <v>65.07079180705141</v>
       </c>
       <c r="I86">
-        <v>2.279017592757296E-08</v>
+        <v>2.279017592757133E-08</v>
       </c>
       <c r="J86">
-        <v>1.014955823932267E-08</v>
+        <v>1.014955823932241E-08</v>
       </c>
       <c r="K86">
-        <v>0.0001241080881427479</v>
+        <v>0.0001241080881427508</v>
       </c>
       <c r="L86">
-        <v>0.03321996845716035</v>
+        <v>0.03321996845716091</v>
       </c>
       <c r="M86">
-        <v>328.507566156364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.03321996845716091</v>
+      </c>
+      <c r="N86">
+        <v>328.5075661563696</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>271.0244825806042</v>
+        <v>271.0244825806026</v>
       </c>
       <c r="B87">
-        <v>4130230.228092131</v>
+        <v>4130230.228092008</v>
       </c>
       <c r="C87">
-        <v>3028.950017182286</v>
+        <v>3028.950017182175</v>
       </c>
       <c r="D87">
-        <v>14559.71086427303</v>
+        <v>14559.71086427321</v>
       </c>
       <c r="E87">
-        <v>6497.630119173454</v>
+        <v>6497.630119173645</v>
       </c>
       <c r="F87">
-        <v>5417.720602827962</v>
+        <v>5417.720602828133</v>
       </c>
       <c r="G87">
-        <v>5.511478179877704</v>
+        <v>5.511478179877726</v>
       </c>
       <c r="H87">
-        <v>68.70759972360374</v>
+        <v>68.70759972360044</v>
       </c>
       <c r="I87">
-        <v>2.540956905644101E-08</v>
+        <v>2.540956905643858E-08</v>
       </c>
       <c r="J87">
-        <v>1.053305586868907E-08</v>
+        <v>1.053305586868874E-08</v>
       </c>
       <c r="K87">
-        <v>0.0001200339032543183</v>
+        <v>0.0001200339032543217</v>
       </c>
       <c r="L87">
-        <v>0.03240983718562141</v>
+        <v>0.03240983718562209</v>
       </c>
       <c r="M87">
-        <v>320.0865363980548</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.03240983718562209</v>
+      </c>
+      <c r="N87">
+        <v>320.086536398062</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>273.05972737196</v>
+        <v>273.0597273719584</v>
       </c>
       <c r="B88">
-        <v>4320041.306982128</v>
+        <v>4320041.306981877</v>
       </c>
       <c r="C88">
-        <v>3221.125826857467</v>
+        <v>3221.125826857136</v>
       </c>
       <c r="D88">
-        <v>14332.14225068943</v>
+        <v>14332.14225068957</v>
       </c>
       <c r="E88">
-        <v>6233.034679368873</v>
+        <v>6233.034679369214</v>
       </c>
       <c r="F88">
-        <v>5193.299139872381</v>
+        <v>5193.299139872644</v>
       </c>
       <c r="G88">
-        <v>5.510126467701873</v>
+        <v>5.510126467701916</v>
       </c>
       <c r="H88">
-        <v>72.86024063510024</v>
+        <v>72.86024063509821</v>
       </c>
       <c r="I88">
-        <v>2.851361531781824E-08</v>
+        <v>2.851361531781646E-08</v>
       </c>
       <c r="J88">
-        <v>1.093888888383071E-08</v>
+        <v>1.093888888383045E-08</v>
       </c>
       <c r="K88">
-        <v>0.0001160006287411932</v>
+        <v>0.0001160006287411957</v>
       </c>
       <c r="L88">
-        <v>0.03160721279122172</v>
+        <v>0.03160721279122221</v>
       </c>
       <c r="M88">
-        <v>311.5489019821418</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.03160721279122221</v>
+      </c>
+      <c r="N88">
+        <v>311.5489019821462</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>275.0949721633158</v>
+        <v>275.0949721633143</v>
       </c>
       <c r="B89">
-        <v>4516333.606705043</v>
+        <v>4516333.606704934</v>
       </c>
       <c r="C89">
-        <v>3427.762818862162</v>
+        <v>3427.762818862072</v>
       </c>
       <c r="D89">
-        <v>14096.42345514185</v>
+        <v>14096.42345514206</v>
       </c>
       <c r="E89">
-        <v>5956.122392068479</v>
+        <v>5956.122392068645</v>
       </c>
       <c r="F89">
-        <v>4958.936297079487</v>
+        <v>4958.93629707964</v>
       </c>
       <c r="G89">
-        <v>5.514672273414968</v>
+        <v>5.514672273414933</v>
       </c>
       <c r="H89">
-        <v>77.65790704221718</v>
+        <v>77.65790704221182</v>
       </c>
       <c r="I89">
-        <v>3.223549533805041E-08</v>
+        <v>3.223549533804649E-08</v>
       </c>
       <c r="J89">
-        <v>1.136951781748933E-08</v>
+        <v>1.136951781748897E-08</v>
       </c>
       <c r="K89">
-        <v>0.0001120033348894405</v>
+        <v>0.000112003334889444</v>
       </c>
       <c r="L89">
-        <v>0.03081305433248</v>
+        <v>0.03081305433248068</v>
       </c>
       <c r="M89">
-        <v>302.8869916742082</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03081305433248068</v>
+      </c>
+      <c r="N89">
+        <v>302.8869916742165</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>277.1302169546715</v>
+        <v>277.13021695467</v>
       </c>
       <c r="B90">
-        <v>4719228.722304433</v>
+        <v>4719228.72230414</v>
       </c>
       <c r="C90">
-        <v>3649.946584100488</v>
+        <v>3649.946584100046</v>
       </c>
       <c r="D90">
-        <v>13851.72943331039</v>
+        <v>13851.72943331052</v>
       </c>
       <c r="E90">
-        <v>5666.369502340222</v>
+        <v>5666.369502340661</v>
       </c>
       <c r="F90">
-        <v>4714.107198173219</v>
+        <v>4714.107198173551</v>
       </c>
       <c r="G90">
-        <v>5.525804205705562</v>
+        <v>5.525804205705576</v>
       </c>
       <c r="H90">
-        <v>83.27721701407872</v>
+        <v>83.27721701407793</v>
       </c>
       <c r="I90">
-        <v>3.675999171024163E-08</v>
+        <v>3.675999171024009E-08</v>
       </c>
       <c r="J90">
-        <v>1.182789451015931E-08</v>
+        <v>1.182789451015904E-08</v>
       </c>
       <c r="K90">
-        <v>0.0001080364500328085</v>
+        <v>0.0001080364500328105</v>
       </c>
       <c r="L90">
-        <v>0.03002797971470056</v>
+        <v>0.03002797971470099</v>
       </c>
       <c r="M90">
-        <v>294.0914465788426</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.03002797971470099</v>
+      </c>
+      <c r="N90">
+        <v>294.0914465788462</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>279.1654617460273</v>
+        <v>279.1654617460257</v>
       </c>
       <c r="B91">
-        <v>4928818.460352038</v>
+        <v>4928818.460351916</v>
       </c>
       <c r="C91">
-        <v>3888.7322813853</v>
+        <v>3888.732281385207</v>
       </c>
       <c r="D91">
-        <v>13597.03043979949</v>
+        <v>13597.03043979972</v>
       </c>
       <c r="E91">
-        <v>5363.277788910356</v>
+        <v>5363.277788910546</v>
       </c>
       <c r="F91">
-        <v>4458.308558645084</v>
+        <v>4458.308558645257</v>
       </c>
       <c r="G91">
-        <v>5.544319694772563</v>
+        <v>5.544319694772534</v>
       </c>
       <c r="H91">
-        <v>89.96586895186678</v>
+        <v>89.96586895186057</v>
       </c>
       <c r="I91">
-        <v>4.235055685734093E-08</v>
+        <v>4.235055685733551E-08</v>
       </c>
       <c r="J91">
-        <v>1.231763464459924E-08</v>
+        <v>1.231763464459881E-08</v>
       </c>
       <c r="K91">
-        <v>0.000104093335973235</v>
+        <v>0.0001040933359732385</v>
       </c>
       <c r="L91">
-        <v>0.02925213658916281</v>
+        <v>0.02925213658916349</v>
       </c>
       <c r="M91">
-        <v>285.1504784330644</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.02925213658916349</v>
+      </c>
+      <c r="N91">
+        <v>285.1504784330725</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>281.2007065373832</v>
+        <v>281.2007065373815</v>
       </c>
       <c r="B92">
-        <v>5145154.621895851</v>
+        <v>5145154.621895606</v>
       </c>
       <c r="C92">
-        <v>4145.163724163534</v>
+        <v>4145.163724163154</v>
       </c>
       <c r="D92">
-        <v>13331.00823618713</v>
+        <v>13331.00823618729</v>
       </c>
       <c r="E92">
-        <v>5046.302182949282</v>
+        <v>5046.302182949624</v>
       </c>
       <c r="F92">
-        <v>4191.013284452181</v>
+        <v>4191.013284452444</v>
       </c>
       <c r="G92">
-        <v>5.57116445922092</v>
+        <v>5.571164459220896</v>
       </c>
       <c r="H92">
-        <v>98.08206844385568</v>
+        <v>98.0820684438517</v>
       </c>
       <c r="I92">
-        <v>4.939515007057978E-08</v>
+        <v>4.939515007057593E-08</v>
       </c>
       <c r="J92">
-        <v>1.284327560300857E-08</v>
+        <v>1.284327560300824E-08</v>
       </c>
       <c r="K92">
-        <v>0.0001001656562298167</v>
+        <v>0.0001001656562298188</v>
       </c>
       <c r="L92">
-        <v>0.02848503929720663</v>
+        <v>0.02848503929720706</v>
       </c>
       <c r="M92">
-        <v>276.0487466377825</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.02848503929720706</v>
+      </c>
+      <c r="N92">
+        <v>276.0487466377872</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>283.235951328739</v>
+        <v>283.2359513287373</v>
       </c>
       <c r="B93">
-        <v>5368239.61224567</v>
+        <v>5368239.6122453</v>
       </c>
       <c r="C93">
-        <v>4420.366704159914</v>
+        <v>4420.36670415921</v>
       </c>
       <c r="D93">
-        <v>13051.92801361286</v>
+        <v>13051.92801361296</v>
       </c>
       <c r="E93">
-        <v>4714.693958947018</v>
+        <v>4714.693958947559</v>
       </c>
       <c r="F93">
-        <v>3911.559456948912</v>
+        <v>3911.559456949316</v>
       </c>
       <c r="G93">
-        <v>5.607493768774918</v>
+        <v>5.607493768774937</v>
       </c>
       <c r="H93">
-        <v>108.1635511992105</v>
+        <v>108.16355119921</v>
       </c>
       <c r="I93">
-        <v>5.848781370458986E-08</v>
+        <v>5.848781370458851E-08</v>
       </c>
       <c r="J93">
-        <v>1.341067387729584E-08</v>
+        <v>1.341067387729562E-08</v>
       </c>
       <c r="K93">
-        <v>9.624242725539501E-05</v>
+        <v>9.624242725539616E-05</v>
       </c>
       <c r="L93">
-        <v>0.02772535082188356</v>
+        <v>0.02772535082188383</v>
       </c>
       <c r="M93">
-        <v>266.7656515918588</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.02772535082188383</v>
+      </c>
+      <c r="N93">
+        <v>266.7656515918603</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>285.2711961200947</v>
+        <v>285.2711961200931</v>
       </c>
       <c r="B94">
-        <v>5598019.751998926</v>
+        <v>5598019.75199874</v>
       </c>
       <c r="C94">
-        <v>4715.766824377042</v>
+        <v>4715.766824376798</v>
       </c>
       <c r="D94">
-        <v>12757.43545668251</v>
+        <v>12757.43545668278</v>
       </c>
       <c r="E94">
-        <v>4367.21960520678</v>
+        <v>4367.219605207094</v>
       </c>
       <c r="F94">
-        <v>3618.938296205557</v>
+        <v>3618.938296205826</v>
       </c>
       <c r="G94">
-        <v>5.654769867213649</v>
+        <v>5.654769867213608</v>
       </c>
       <c r="H94">
-        <v>121.0558238822058</v>
+        <v>121.055823882193</v>
       </c>
       <c r="I94">
-        <v>7.058287971332209E-08</v>
+        <v>7.058287971330975E-08</v>
       </c>
       <c r="J94">
-        <v>1.402764161670924E-08</v>
+        <v>1.402764161670868E-08</v>
       </c>
       <c r="K94">
-        <v>9.230855311264954E-05</v>
+        <v>9.230855311265301E-05</v>
       </c>
       <c r="L94">
-        <v>0.02697056981833373</v>
+        <v>0.0269705698183344</v>
       </c>
       <c r="M94">
-        <v>257.2726895969697</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.0269705698183344</v>
+      </c>
+      <c r="N94">
+        <v>257.2726895969782</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>287.3064409114505</v>
+        <v>287.3064409114489</v>
       </c>
       <c r="B95">
-        <v>5834383.065856501</v>
+        <v>5834383.065856254</v>
       </c>
       <c r="C95">
-        <v>5033.500278351958</v>
+        <v>5033.500278351518</v>
       </c>
       <c r="D95">
-        <v>12444.21870264186</v>
+        <v>12444.21870264206</v>
       </c>
       <c r="E95">
-        <v>4001.698780850005</v>
+        <v>4001.698780850392</v>
       </c>
       <c r="F95">
-        <v>3311.43113091197</v>
+        <v>3311.43113091228</v>
       </c>
       <c r="G95">
-        <v>5.71492286971012</v>
+        <v>5.714922869710123</v>
       </c>
       <c r="H95">
-        <v>138.1687375023164</v>
+        <v>138.1687375023067</v>
       </c>
       <c r="I95">
-        <v>8.730920077267082E-08</v>
+        <v>8.730920077266057E-08</v>
       </c>
       <c r="J95">
-        <v>1.470501899486347E-08</v>
+        <v>1.470501899486304E-08</v>
       </c>
       <c r="K95">
-        <v>8.834244485231438E-05</v>
+        <v>8.834244485231677E-05</v>
       </c>
       <c r="L95">
-        <v>0.02621654265247157</v>
+        <v>0.02621654265247203</v>
       </c>
       <c r="M95">
-        <v>247.5291691407475</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.02621654265247203</v>
+      </c>
+      <c r="N95">
+        <v>247.5291691407525</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>289.3416857028063</v>
+        <v>289.3416857028046</v>
       </c>
       <c r="B96">
-        <v>6077162.549001264</v>
+        <v>6077162.549001239</v>
       </c>
       <c r="C96">
-        <v>5377.136657158049</v>
+        <v>5377.136657158405</v>
       </c>
       <c r="D96">
-        <v>12107.4050274555</v>
+        <v>12107.40502745598</v>
       </c>
       <c r="E96">
-        <v>3614.247620821901</v>
+        <v>3614.247620821865</v>
       </c>
       <c r="F96">
-        <v>2985.999656742583</v>
+        <v>2985.999656742599</v>
       </c>
       <c r="G96">
-        <v>5.790632471225451</v>
+        <v>5.790632471225251</v>
       </c>
       <c r="H96">
-        <v>162.0411116772607</v>
+        <v>162.0411116772123</v>
       </c>
       <c r="I96">
-        <v>1.116753608812582E-07</v>
+        <v>1.116753608812105E-07</v>
       </c>
       <c r="J96">
-        <v>1.545860732056406E-08</v>
+        <v>1.545860732056303E-08</v>
       </c>
       <c r="K96">
-        <v>8.431184887323127E-05</v>
+        <v>8.431184887323685E-05</v>
       </c>
       <c r="L96">
-        <v>0.02545662828637214</v>
+        <v>0.02545662828637313</v>
       </c>
       <c r="M96">
-        <v>237.4747455556647</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.02545662828637313</v>
+      </c>
+      <c r="N96">
+        <v>237.4747455556806</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>291.3769304941621</v>
+        <v>291.3769304941604</v>
       </c>
       <c r="B97">
-        <v>6326144.651595396</v>
+        <v>6326144.65159524</v>
       </c>
       <c r="C97">
-        <v>5753.000153712635</v>
+        <v>5753.000153712539</v>
       </c>
       <c r="D97">
-        <v>11739.37748913437</v>
+        <v>11739.37748913479</v>
       </c>
       <c r="E97">
-        <v>3197.928820057133</v>
+        <v>3197.928820057376</v>
       </c>
       <c r="F97">
-        <v>2637.185959843285</v>
+        <v>2637.185959843504</v>
       </c>
       <c r="G97">
-        <v>5.885865771184247</v>
+        <v>5.885865771184084</v>
       </c>
       <c r="H97">
-        <v>197.7526987866789</v>
+        <v>197.7526987866219</v>
       </c>
       <c r="I97">
-        <v>1.498711533688857E-07</v>
+        <v>1.49871153368826E-07</v>
       </c>
       <c r="J97">
-        <v>1.63129912219998E-08</v>
+        <v>1.631299122199884E-08</v>
       </c>
       <c r="K97">
-        <v>8.016574416050773E-05</v>
+        <v>8.016574416051239E-05</v>
       </c>
       <c r="L97">
-        <v>0.02468010802047592</v>
+        <v>0.02468010802047676</v>
       </c>
       <c r="M97">
-        <v>227.014978349397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.02468010802047676</v>
+      </c>
+      <c r="N97">
+        <v>227.0149783494095</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>293.4121752855179</v>
+        <v>293.4121752855162</v>
       </c>
       <c r="B98">
-        <v>6581081.500544397</v>
+        <v>6581081.500544167</v>
       </c>
       <c r="C98">
-        <v>6172.941728691153</v>
+        <v>6172.941728690708</v>
       </c>
       <c r="D98">
-        <v>11327.12549728312</v>
+        <v>11327.12549728357</v>
       </c>
       <c r="E98">
-        <v>2739.907037995862</v>
+        <v>2739.907037996342</v>
       </c>
       <c r="F98">
-        <v>2254.791395610332</v>
+        <v>2254.791395610734</v>
       </c>
       <c r="G98">
-        <v>6.007042968619791</v>
+        <v>6.007042968619626</v>
       </c>
       <c r="H98">
-        <v>257.1614739658592</v>
+        <v>257.1614739657664</v>
       </c>
       <c r="I98">
-        <v>2.168031589516652E-07</v>
+        <v>2.168031589515614E-07</v>
       </c>
       <c r="J98">
-        <v>1.731015209221669E-08</v>
+        <v>1.731015209221558E-08</v>
       </c>
       <c r="K98">
-        <v>7.581625395330997E-05</v>
+        <v>7.581625395331464E-05</v>
       </c>
       <c r="L98">
-        <v>0.0238687210495269</v>
+        <v>0.02386872104952775</v>
       </c>
       <c r="M98">
-        <v>215.9891334439521</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02386872104952775</v>
+      </c>
+      <c r="N98">
+        <v>215.9891334439644</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>295.4474200768737</v>
+        <v>295.447420076872</v>
       </c>
       <c r="B99">
-        <v>6841704.717210667</v>
+        <v>6841704.717210326</v>
       </c>
       <c r="C99">
-        <v>6661.672845127618</v>
+        <v>6661.6728451263</v>
       </c>
       <c r="D99">
-        <v>10844.99467503476</v>
+        <v>10844.99467503464</v>
       </c>
       <c r="E99">
-        <v>2213.838684596951</v>
+        <v>2213.838684597692</v>
       </c>
       <c r="F99">
-        <v>1817.676553243908</v>
+        <v>1817.67655324447</v>
       </c>
       <c r="G99">
-        <v>6.166111243572422</v>
+        <v>6.166111243572666</v>
       </c>
       <c r="H99">
-        <v>375.858717308288</v>
+        <v>375.8587173084352</v>
       </c>
       <c r="I99">
-        <v>3.588615530816012E-07</v>
+        <v>3.588615530817554E-07</v>
       </c>
       <c r="J99">
-        <v>1.853318210597497E-08</v>
+        <v>1.853318210597514E-08</v>
       </c>
       <c r="K99">
-        <v>7.108909529208277E-05</v>
+        <v>7.108909529208147E-05</v>
       </c>
       <c r="L99">
-        <v>0.02298746064786052</v>
+        <v>0.02298746064786043</v>
       </c>
       <c r="M99">
-        <v>204.081959497211</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02298746064786043</v>
+      </c>
+      <c r="N99">
+        <v>204.0819594972048</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>297.4826648682295</v>
+        <v>297.4826648682277</v>
       </c>
       <c r="B100">
-        <v>7107738.767750653</v>
+        <v>7107738.767750693</v>
       </c>
       <c r="C100">
-        <v>7285.304075492031</v>
+        <v>7285.304075494718</v>
       </c>
       <c r="D100">
-        <v>10226.18542284955</v>
+        <v>10226.18542285254</v>
       </c>
       <c r="E100">
-        <v>1550.047875760906</v>
+        <v>1550.047875760826</v>
       </c>
       <c r="F100">
-        <v>1269.473752677734</v>
+        <v>1269.473752677809</v>
       </c>
       <c r="G100">
-        <v>6.392113973155027</v>
+        <v>6.392113973153336</v>
       </c>
       <c r="H100">
-        <v>731.8666866747747</v>
+        <v>731.8666866706528</v>
       </c>
       <c r="I100">
-        <v>8.190896667991605E-07</v>
+        <v>8.190896667938955E-07</v>
       </c>
       <c r="J100">
-        <v>2.020014660364445E-08</v>
+        <v>2.020014660363648E-08</v>
       </c>
       <c r="K100">
-        <v>6.552819890753034E-05</v>
+        <v>6.552819890755651E-05</v>
       </c>
       <c r="L100">
-        <v>0.02194945783794198</v>
+        <v>0.0219494578379463</v>
       </c>
       <c r="M100">
-        <v>190.4755909320202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.0219494578379463</v>
+      </c>
+      <c r="N100">
+        <v>190.4755909320915</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>299.5179096595853</v>
+        <v>299.5179096595835</v>
       </c>
       <c r="B101">
-        <v>7378910.842469409</v>
+        <v>7378910.839832671</v>
       </c>
       <c r="C101">
-        <v>8787.532445458944</v>
+        <v>8787.887335719755</v>
       </c>
       <c r="D101">
-        <v>8791.254412216616</v>
+        <v>8790.911674035902</v>
       </c>
       <c r="E101">
-        <v>1.951614274829451</v>
+        <v>1.585812138191684</v>
       </c>
       <c r="F101">
-        <v>1.596108252073909</v>
+        <v>1.296940943667596</v>
       </c>
       <c r="G101">
-        <v>6.944800172751426</v>
+        <v>6.944926194118302</v>
       </c>
       <c r="H101">
-        <v>8339116.785773482</v>
+        <v>10297291.46996928</v>
       </c>
       <c r="I101">
-        <v>0.01337289209918192</v>
+        <v>0.01651447322225866</v>
       </c>
       <c r="J101">
-        <v>2.457190746119487E-08</v>
+        <v>2.457305220539652E-08</v>
       </c>
       <c r="K101">
-        <v>5.445058316467955E-05</v>
+        <v>5.444819724480437E-05</v>
       </c>
       <c r="L101">
-        <v>0.01992513203427689</v>
+        <v>0.0199247153756632</v>
       </c>
       <c r="M101">
-        <v>166.8077718604069</v>
+        <v>0.0199247153756632</v>
+      </c>
+      <c r="N101">
+        <v>166.8034456156093</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
